--- a/experiments/results/kernel/graphs.xlsx
+++ b/experiments/results/kernel/graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="basic_untuned" sheetId="1" r:id="rId1"/>
@@ -1416,11 +1416,1648 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1342080480"/>
-        <c:axId val="1342088640"/>
+        <c:axId val="-153420432"/>
+        <c:axId val="-153423696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1342080480"/>
+        <c:axId val="-153420432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="350000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (QPS)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-153423696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-153423696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Latency (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-153420432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>basic_threadpin!$J$2:$J$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>4357.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9061.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13412.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17857.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22450.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27031.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31477.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35986.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40519.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44995.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49415.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54013.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58463.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62954.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67452.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72059.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76419.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81057.600000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85509.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89924.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94458.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99080.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>103508.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>107978.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>112608</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>117045.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>121507.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>125850.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>130564.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>134968.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>139504.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>143909.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>147424.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>150912.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>154328.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>157885.70000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>161556.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>165427.70000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>169100.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>173135.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>177289</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>181413.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>185601</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>189906.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>194164.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>198341.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>202847.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>206894.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>210935.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>215549.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>219919.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>224385</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>228427.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>232879.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>237338.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>241296.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>245667.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>250207.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>254280.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>259027.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>263176.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>267557.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>271642.90000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>276004.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>280225.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>284642.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>288806.8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>293245.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>297540.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>302031.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>306190.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>310502</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>314578.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>319125.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>323380.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>327547.09999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>332020.90000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>336378.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>340686.2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>345027.4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>349243.1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>353649.9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>357819.7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>362102.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>366664.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>370963.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>374959.3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>379287.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>383763.4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>388129.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>392469.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>395223.6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>400955.7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>396926.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>403509.6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>410061.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>413324.4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>403987.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>398129.6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>402738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>basic_threadpin!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>139.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>89.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>117.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>121.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>170.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>224.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>289.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>740.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1150.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1215.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1550.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1896.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2254.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3065.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6327.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4143.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4194.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4262.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4919.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4420.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4211.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5023.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5080.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2664.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>233.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>152.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4354.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>186.3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>179.1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>194.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>200.4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>217.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4520.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4583.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>229.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>292.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>283.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1622.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>304.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>353.7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>341.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>494.8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1188.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4696.3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>499.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>432.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>477.9</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>510.1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>530.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>526.6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>636.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1381.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>732.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>858.6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>976.7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>941.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2301.9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1487.2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2475.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2194.4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1997.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2571.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3225.1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2783.2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7319</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4979.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6545.9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5313.3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6286</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5136.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6318.4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5797.3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5392.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>95th</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>basic_threadpin!$J$2:$J$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>4357.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9061.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13412.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17857.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22450.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27031.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31477.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35986.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40519.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44995.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49415.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54013.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58463.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62954.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67452.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72059.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76419.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81057.600000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85509.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89924.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94458.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99080.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>103508.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>107978.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>112608</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>117045.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>121507.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>125850.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>130564.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>134968.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>139504.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>143909.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>147424.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>150912.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>154328.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>157885.70000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>161556.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>165427.70000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>169100.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>173135.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>177289</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>181413.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>185601</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>189906.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>194164.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>198341.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>202847.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>206894.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>210935.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>215549.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>219919.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>224385</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>228427.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>232879.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>237338.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>241296.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>245667.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>250207.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>254280.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>259027.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>263176.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>267557.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>271642.90000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>276004.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>280225.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>284642.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>288806.8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>293245.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>297540.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>302031.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>306190.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>310502</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>314578.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>319125.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>323380.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>327547.09999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>332020.90000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>336378.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>340686.2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>345027.4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>349243.1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>353649.9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>357819.7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>362102.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>366664.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>370963.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>374959.3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>379287.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>383763.4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>388129.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>392469.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>395223.6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>400955.7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>396926.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>403509.6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>410061.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>413324.4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>403987.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>398129.6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>402738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>basic_threadpin!$H$2:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>177.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>114.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>117.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>123.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>123.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>124.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>127.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>126.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>129.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>133.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>131.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>138.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>146.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>150.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>171.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>272.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>492.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2428.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4161.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3515.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4412.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4042.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3497.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4276.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5598.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1043.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>238.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>216.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>373.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>210.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>207.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>267.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>518.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>236.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>244.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>240.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>243.3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>272.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>286.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>291.7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>322.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>329.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>341.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>369.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>370.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>443.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>394.8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>425.1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>441.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>776.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4728.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>500.9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>537.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>581.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>609.1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>656.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>759.9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>762.9</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>853.9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1604</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>950.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1148.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1656</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2059.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2002.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2826.7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3302.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4986</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5528.9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6396.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6938.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6298.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6992.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6912.6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7050.9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7001.7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6956.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6933.3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6994.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7029.4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6975.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-153426960"/>
+        <c:axId val="-153429136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-153426960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350000"/>
@@ -1539,12 +3176,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342088640"/>
+        <c:crossAx val="-153429136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1342088640"/>
+        <c:axId val="-153429136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1671,1647 +3308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342080480"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Average</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>basic_threadpin!$J$2:$J$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>4487.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9001.2999999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13491</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18047</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22535.599999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26947.599999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31465.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36055.199999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40465.599999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45048.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>49541.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53973.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>58453.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>63046.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>67616.2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>72034.899999999994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76407.100000000006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>80940.600000000006</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>85384.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>90037.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>94469.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>99024.6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>103494.3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>107971.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>112400.7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>117040.9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>121529.60000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>125997.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>130535.3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>134937.29999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>139663.1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>143769</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>147235.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>150721.29999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>154227.70000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>157745.79999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>161562</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>165250</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>169411.3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>173168.6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>177531.8</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>181320.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>185705.4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>189829.7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>194137.60000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>198347.7</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>202757.4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>207076</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>211512.2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>215676.79999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>219853.8</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>224228.1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>228544.9</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>232906.6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>237060.7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>241519.6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>245477.2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>250173.9</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>254421.6</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>258795.4</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>263050.8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>267385.09999999998</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>271755.8</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>275839</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>280202.40000000002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>284726.7</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>289089.90000000002</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>293348.09999999998</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>297643.8</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>301863.59999999998</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>306117.5</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>310335</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>314492.59999999998</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>319142</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>323388.3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>327790.59999999998</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>332072.90000000002</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>336337.2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>340703</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>344980.4</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>349209.8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>353836.2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>358035.5</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>362339.6</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>366495.7</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>370717.8</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>375019.3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>379679.9</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>383519.7</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>388033.9</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>392771.2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>396574.1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>397273</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>387846</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>403315.4</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>397189.2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>391931.7</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>396902.1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>397633.4</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>406775.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>basic_threadpin!$B$2:$B$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>140.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>84.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>81.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>86.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>89.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>84.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>83.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>84.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>86.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>82.9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>83.2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>87.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>83.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>83.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>85.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>88.8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>87.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>87.3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>100.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>107.8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>123.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>147.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>180.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>339.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>807.2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1173.9000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1362</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1496.2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2200.1999999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2504.1999999999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3161.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4126.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4170.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5268.4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5485.8</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4915.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6145.6</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4302.2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4827.8999999999996</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4433.8</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2391.5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5824.7</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1276.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1328.3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>161.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>161.6</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>272.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>213.9</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>194.2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>244.5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>235.1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>279.7</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3538.5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>295.3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>312.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1402.8</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2417.5</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>359.9</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>394.1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1478</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>437.7</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>455.9</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>463.3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>461.9</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>540.6</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>586.6</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>656.8</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>638.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>662.8</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>732.7</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>5268.8</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>4080.6</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>941.6</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>5352.2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1287.4000000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1234.2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1748.8</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1796.3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2146.1999999999998</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2845.7</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3146.3</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2521</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3631.1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>7453.5</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>6001.9</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>5335.9</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6407.2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>5539.7</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>5498.9</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>5533.4</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>7541.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>95th</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>basic_threadpin!$J$2:$J$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>4487.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9001.2999999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13491</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18047</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22535.599999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26947.599999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31465.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36055.199999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40465.599999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45048.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>49541.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53973.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>58453.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>63046.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>67616.2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>72034.899999999994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76407.100000000006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>80940.600000000006</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>85384.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>90037.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>94469.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>99024.6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>103494.3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>107971.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>112400.7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>117040.9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>121529.60000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>125997.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>130535.3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>134937.29999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>139663.1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>143769</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>147235.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>150721.29999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>154227.70000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>157745.79999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>161562</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>165250</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>169411.3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>173168.6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>177531.8</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>181320.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>185705.4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>189829.7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>194137.60000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>198347.7</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>202757.4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>207076</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>211512.2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>215676.79999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>219853.8</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>224228.1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>228544.9</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>232906.6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>237060.7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>241519.6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>245477.2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>250173.9</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>254421.6</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>258795.4</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>263050.8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>267385.09999999998</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>271755.8</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>275839</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>280202.40000000002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>284726.7</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>289089.90000000002</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>293348.09999999998</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>297643.8</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>301863.59999999998</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>306117.5</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>310335</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>314492.59999999998</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>319142</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>323388.3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>327790.59999999998</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>332072.90000000002</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>336337.2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>340703</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>344980.4</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>349209.8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>353836.2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>358035.5</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>362339.6</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>366495.7</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>370717.8</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>375019.3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>379679.9</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>383519.7</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>388033.9</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>392771.2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>396574.1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>397273</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>387846</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>403315.4</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>397189.2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>391931.7</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>396902.1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>397633.4</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>406775.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>basic_threadpin!$H$2:$H$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>171.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>139.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>108.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>109.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>112.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>112.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>114.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>115.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>116.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>117.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>121.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>122.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>122.9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>124.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>125.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>125.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>126.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>127.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>128.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>129.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>132.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>136.9</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>136.9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>138.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>147.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>150.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>184.1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>743.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2654.7</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3489</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3676.4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3068.8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5377.6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5008.3999999999996</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4482.7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4900.3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1022.9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4432.1000000000004</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1425.1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>386.1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3047</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>217.1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>357.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>231.8</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>582.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>279.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>239.3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>258.2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>262.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>277.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>300.7</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>304.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>321.3</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>332.8</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>355.8</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>384.5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>376.6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>396.9</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>402.7</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4475.6000000000004</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>443.6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>456.6</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>483.3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>487.8</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>556.1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>548.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>558.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>585.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>611.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>697.7</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>823</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>786.5</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>809.2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>890.1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1331.1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1339.1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1557.5</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1804.2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2339.3000000000002</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2189.5</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3801.6</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3039.1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5201.5</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>6464.6</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>7059.8</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>6186.4</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>6722.1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>7019.3</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>7521.8</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>7009.6</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>7010.8</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>7301.8</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>7994.3</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>7025.6</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>6992.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1342076672"/>
-        <c:axId val="1342081024"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1342076672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="350000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Throughput</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (QPS)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1342081024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1342081024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Latency (</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="el-GR">
-                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>μ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US">
-                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1342076672"/>
+        <c:crossAx val="-153426960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4696,11 +4693,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1342078848"/>
-        <c:axId val="1342077760"/>
+        <c:axId val="-153426416"/>
+        <c:axId val="-153423152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1342078848"/>
+        <c:axId val="-153426416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1720000"/>
@@ -4753,7 +4750,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4820,12 +4816,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342077760"/>
+        <c:crossAx val="-153423152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1342077760"/>
+        <c:axId val="-153423152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4885,7 +4881,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4952,7 +4947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342078848"/>
+        <c:crossAx val="-153426416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4966,7 +4961,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6337,11 +6331,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1355762400"/>
-        <c:axId val="1355759136"/>
+        <c:axId val="-153422608"/>
+        <c:axId val="-153422064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1355762400"/>
+        <c:axId val="-153422608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1720000"/>
@@ -6394,7 +6388,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6461,12 +6454,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1355759136"/>
+        <c:crossAx val="-153422064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1355759136"/>
+        <c:axId val="-153422064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6526,7 +6519,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6593,7 +6585,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1355762400"/>
+        <c:crossAx val="-153422608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6607,7 +6599,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7978,11 +7969,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1355764032"/>
-        <c:axId val="1355755872"/>
+        <c:axId val="-153419888"/>
+        <c:axId val="-153419344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1355764032"/>
+        <c:axId val="-153419888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1600000"/>
@@ -8035,7 +8026,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8102,12 +8092,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1355755872"/>
+        <c:crossAx val="-153419344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1355755872"/>
+        <c:axId val="-153419344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8167,7 +8157,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8234,7 +8223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1355764032"/>
+        <c:crossAx val="-153419888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8248,7 +8237,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9619,11 +9607,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1356430464"/>
-        <c:axId val="1356435360"/>
+        <c:axId val="-153417712"/>
+        <c:axId val="-153417168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1356430464"/>
+        <c:axId val="-153417712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1500000"/>
@@ -9676,7 +9664,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9743,12 +9730,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1356435360"/>
+        <c:crossAx val="-153417168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1356435360"/>
+        <c:axId val="-153417168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9808,7 +9795,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9875,7 +9861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1356430464"/>
+        <c:crossAx val="-153417712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9889,7 +9875,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11260,11 +11245,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1356439712"/>
-        <c:axId val="1356427200"/>
+        <c:axId val="-372488912"/>
+        <c:axId val="-372490000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1356439712"/>
+        <c:axId val="-372488912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100000"/>
@@ -11317,7 +11302,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11384,12 +11368,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1356427200"/>
+        <c:crossAx val="-372490000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1356427200"/>
+        <c:axId val="-372490000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -11450,7 +11434,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11517,7 +11500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1356439712"/>
+        <c:crossAx val="-372488912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11531,7 +11514,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12281,304 +12263,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>4487.3</c:v>
+                  <c:v>4357.1000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9001.2999999999993</c:v>
+                  <c:v>9061.7000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13491</c:v>
+                  <c:v>13412.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18047</c:v>
+                  <c:v>17857.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22535.599999999999</c:v>
+                  <c:v>22450.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26947.599999999999</c:v>
+                  <c:v>27031.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31465.9</c:v>
+                  <c:v>31477.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36055.199999999997</c:v>
+                  <c:v>35986.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40465.599999999999</c:v>
+                  <c:v>40519.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45048.2</c:v>
+                  <c:v>44995.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49541.1</c:v>
+                  <c:v>49415.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53973.2</c:v>
+                  <c:v>54013.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58453.3</c:v>
+                  <c:v>58463.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63046.8</c:v>
+                  <c:v>62954.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67616.2</c:v>
+                  <c:v>67452.899999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72034.899999999994</c:v>
+                  <c:v>72059.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76407.100000000006</c:v>
+                  <c:v>76419.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>80940.600000000006</c:v>
+                  <c:v>81057.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>85384.6</c:v>
+                  <c:v>85509.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>90037.8</c:v>
+                  <c:v>89924.1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>94469.6</c:v>
+                  <c:v>94458.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>99024.6</c:v>
+                  <c:v>99080.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>103494.3</c:v>
+                  <c:v>103508.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>107971.5</c:v>
+                  <c:v>107978.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>112400.7</c:v>
+                  <c:v>112608</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>117040.9</c:v>
+                  <c:v>117045.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>121529.60000000001</c:v>
+                  <c:v>121507.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>125997.7</c:v>
+                  <c:v>125850.2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>130535.3</c:v>
+                  <c:v>130564.7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>134937.29999999999</c:v>
+                  <c:v>134968.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>139663.1</c:v>
+                  <c:v>139504.6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>143769</c:v>
+                  <c:v>143909.9</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>147235.5</c:v>
+                  <c:v>147424.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>150721.29999999999</c:v>
+                  <c:v>150912.79999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>154227.70000000001</c:v>
+                  <c:v>154328.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>157745.79999999999</c:v>
+                  <c:v>157885.70000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>161562</c:v>
+                  <c:v>161556.1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>165250</c:v>
+                  <c:v>165427.70000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>169411.3</c:v>
+                  <c:v>169100.3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>173168.6</c:v>
+                  <c:v>173135.2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>177531.8</c:v>
+                  <c:v>177289</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>181320.5</c:v>
+                  <c:v>181413.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>185705.4</c:v>
+                  <c:v>185601</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>189829.7</c:v>
+                  <c:v>189906.3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>194137.60000000001</c:v>
+                  <c:v>194164.6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>198347.7</c:v>
+                  <c:v>198341.9</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>202757.4</c:v>
+                  <c:v>202847.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>207076</c:v>
+                  <c:v>206894.2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>211512.2</c:v>
+                  <c:v>210935.8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>215676.79999999999</c:v>
+                  <c:v>215549.2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>219853.8</c:v>
+                  <c:v>219919.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>224228.1</c:v>
+                  <c:v>224385</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>228544.9</c:v>
+                  <c:v>228427.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>232906.6</c:v>
+                  <c:v>232879.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>237060.7</c:v>
+                  <c:v>237338.8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>241519.6</c:v>
+                  <c:v>241296.8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>245477.2</c:v>
+                  <c:v>245667.8</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>250173.9</c:v>
+                  <c:v>250207.4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>254421.6</c:v>
+                  <c:v>254280.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>258795.4</c:v>
+                  <c:v>259027.6</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>263050.8</c:v>
+                  <c:v>263176.59999999998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>267385.09999999998</c:v>
+                  <c:v>267557.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>271755.8</c:v>
+                  <c:v>271642.90000000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>275839</c:v>
+                  <c:v>276004.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>280202.40000000002</c:v>
+                  <c:v>280225.59999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>284726.7</c:v>
+                  <c:v>284642.7</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>289089.90000000002</c:v>
+                  <c:v>288806.8</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>293348.09999999998</c:v>
+                  <c:v>293245.8</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>297643.8</c:v>
+                  <c:v>297540.59999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>301863.59999999998</c:v>
+                  <c:v>302031.3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>306117.5</c:v>
+                  <c:v>306190.2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>310335</c:v>
+                  <c:v>310502</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>314492.59999999998</c:v>
+                  <c:v>314578.7</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>319142</c:v>
+                  <c:v>319125.3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>323388.3</c:v>
+                  <c:v>323380.59999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>327790.59999999998</c:v>
+                  <c:v>327547.09999999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>332072.90000000002</c:v>
+                  <c:v>332020.90000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>336337.2</c:v>
+                  <c:v>336378.5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>340703</c:v>
+                  <c:v>340686.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>344980.4</c:v>
+                  <c:v>345027.4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>349209.8</c:v>
+                  <c:v>349243.1</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>353836.2</c:v>
+                  <c:v>353649.9</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>358035.5</c:v>
+                  <c:v>357819.7</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>362339.6</c:v>
+                  <c:v>362102.2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>366495.7</c:v>
+                  <c:v>366664.4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>370717.8</c:v>
+                  <c:v>370963.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>375019.3</c:v>
+                  <c:v>374959.3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>379679.9</c:v>
+                  <c:v>379287.5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>383519.7</c:v>
+                  <c:v>383763.4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>388033.9</c:v>
+                  <c:v>388129.5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>392771.2</c:v>
+                  <c:v>392469.9</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>396574.1</c:v>
+                  <c:v>395223.6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>397273</c:v>
+                  <c:v>400955.7</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>387846</c:v>
+                  <c:v>396926.7</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>403315.4</c:v>
+                  <c:v>403509.6</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>397189.2</c:v>
+                  <c:v>410061.9</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>391931.7</c:v>
+                  <c:v>413324.4</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>396902.1</c:v>
+                  <c:v>403987.8</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>397633.4</c:v>
+                  <c:v>398129.6</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>406775.8</c:v>
+                  <c:v>402738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12590,304 +12572,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>140.19999999999999</c:v>
+                  <c:v>139.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.7</c:v>
+                  <c:v>90.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.8</c:v>
+                  <c:v>88.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.5</c:v>
+                  <c:v>83.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.3</c:v>
+                  <c:v>81.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.4</c:v>
+                  <c:v>81.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.6</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>89.3</c:v>
+                  <c:v>80.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.7</c:v>
+                  <c:v>81.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83.8</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>84.1</c:v>
+                  <c:v>81.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>86.4</c:v>
+                  <c:v>82.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97</c:v>
+                  <c:v>82.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>82.9</c:v>
+                  <c:v>81.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83.2</c:v>
+                  <c:v>81.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>87.2</c:v>
+                  <c:v>81.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85.8</c:v>
+                  <c:v>82.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83.6</c:v>
+                  <c:v>85.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83.8</c:v>
+                  <c:v>84.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>85.5</c:v>
+                  <c:v>83.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>88.8</c:v>
+                  <c:v>84.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>87.1</c:v>
+                  <c:v>89.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>87.3</c:v>
+                  <c:v>90.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>94</c:v>
+                  <c:v>89.9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100.4</c:v>
+                  <c:v>94.3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>97</c:v>
+                  <c:v>99.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>107.8</c:v>
+                  <c:v>117.3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>123.8</c:v>
+                  <c:v>121.9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>147.69999999999999</c:v>
+                  <c:v>170.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>180.8</c:v>
+                  <c:v>224.7</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>339.5</c:v>
+                  <c:v>289.2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>807.2</c:v>
+                  <c:v>740.7</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1173.9000000000001</c:v>
+                  <c:v>1150.8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1362</c:v>
+                  <c:v>1215.9000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1496.2</c:v>
+                  <c:v>1550.2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2200.1999999999998</c:v>
+                  <c:v>1896.2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2504.1999999999998</c:v>
+                  <c:v>2254.4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3161.5</c:v>
+                  <c:v>3065.7</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4126.5</c:v>
+                  <c:v>6327.2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4170.5</c:v>
+                  <c:v>4143.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5268.4</c:v>
+                  <c:v>4194.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5485.8</c:v>
+                  <c:v>4262.7</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4915.5</c:v>
+                  <c:v>4919.8</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6145.6</c:v>
+                  <c:v>4420.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4302.2</c:v>
+                  <c:v>4211.2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4827.8999999999996</c:v>
+                  <c:v>5023.7</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4433.8</c:v>
+                  <c:v>5080.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2391.5</c:v>
+                  <c:v>2664.8</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5824.7</c:v>
+                  <c:v>233.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1276.2</c:v>
+                  <c:v>152.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1328.3</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>161.30000000000001</c:v>
+                  <c:v>4354.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>161.6</c:v>
+                  <c:v>186.3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>272.89999999999998</c:v>
+                  <c:v>179.1</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>195</c:v>
+                  <c:v>194.9</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>213.9</c:v>
+                  <c:v>200.4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>194.2</c:v>
+                  <c:v>217.2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>244.5</c:v>
+                  <c:v>4520.2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>235.1</c:v>
+                  <c:v>4583.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>279.7</c:v>
+                  <c:v>229.2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3538.5</c:v>
+                  <c:v>292.3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>295.3</c:v>
+                  <c:v>283.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>312.39999999999998</c:v>
+                  <c:v>1622.8</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1402.8</c:v>
+                  <c:v>304.3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2417.5</c:v>
+                  <c:v>353.7</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>352</c:v>
+                  <c:v>341.6</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>359.9</c:v>
+                  <c:v>494.8</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>394.1</c:v>
+                  <c:v>1188.2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1478</c:v>
+                  <c:v>4696.3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>437.7</c:v>
+                  <c:v>499.9</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>455.9</c:v>
+                  <c:v>432.8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>463.3</c:v>
+                  <c:v>477.9</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>461.9</c:v>
+                  <c:v>510.1</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>540.6</c:v>
+                  <c:v>530.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>586.6</c:v>
+                  <c:v>526.6</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>656.8</c:v>
+                  <c:v>611</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>638.70000000000005</c:v>
+                  <c:v>636.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>662.8</c:v>
+                  <c:v>687</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>732.7</c:v>
+                  <c:v>1381.9</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5268.8</c:v>
+                  <c:v>732.8</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4080.6</c:v>
+                  <c:v>858.6</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>941.6</c:v>
+                  <c:v>976.7</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5352.2</c:v>
+                  <c:v>941.2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1287.4000000000001</c:v>
+                  <c:v>2301.9</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1234.2</c:v>
+                  <c:v>1487.2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1748.8</c:v>
+                  <c:v>2475.4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1796.3</c:v>
+                  <c:v>2194.4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2146.1999999999998</c:v>
+                  <c:v>1997.6</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2845.7</c:v>
+                  <c:v>2571.5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3146.3</c:v>
+                  <c:v>3225.1</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2521</c:v>
+                  <c:v>2783.2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3631.1</c:v>
+                  <c:v>7319</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7453.5</c:v>
+                  <c:v>4979.2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6001.9</c:v>
+                  <c:v>6545.9</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5335.9</c:v>
+                  <c:v>5313.3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6407.2</c:v>
+                  <c:v>6286</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5539.7</c:v>
+                  <c:v>5136.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5498.9</c:v>
+                  <c:v>6318.4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5533.4</c:v>
+                  <c:v>5797.3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7541.6</c:v>
+                  <c:v>5392.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16094,11 +16076,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1122474192"/>
-        <c:axId val="1122468208"/>
+        <c:axId val="-220990000"/>
+        <c:axId val="-220984016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1122474192"/>
+        <c:axId val="-220990000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1800000"/>
@@ -16213,12 +16195,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122468208"/>
+        <c:crossAx val="-220984016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1122468208"/>
+        <c:axId val="-220984016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000"/>
@@ -16349,7 +16331,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1122474192"/>
+        <c:crossAx val="-220990000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17113,304 +17095,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>4487.3</c:v>
+                  <c:v>4357.1000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9001.2999999999993</c:v>
+                  <c:v>9061.7000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13491</c:v>
+                  <c:v>13412.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18047</c:v>
+                  <c:v>17857.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22535.599999999999</c:v>
+                  <c:v>22450.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26947.599999999999</c:v>
+                  <c:v>27031.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31465.9</c:v>
+                  <c:v>31477.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36055.199999999997</c:v>
+                  <c:v>35986.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40465.599999999999</c:v>
+                  <c:v>40519.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45048.2</c:v>
+                  <c:v>44995.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49541.1</c:v>
+                  <c:v>49415.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53973.2</c:v>
+                  <c:v>54013.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58453.3</c:v>
+                  <c:v>58463.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63046.8</c:v>
+                  <c:v>62954.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67616.2</c:v>
+                  <c:v>67452.899999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72034.899999999994</c:v>
+                  <c:v>72059.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76407.100000000006</c:v>
+                  <c:v>76419.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>80940.600000000006</c:v>
+                  <c:v>81057.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>85384.6</c:v>
+                  <c:v>85509.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>90037.8</c:v>
+                  <c:v>89924.1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>94469.6</c:v>
+                  <c:v>94458.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>99024.6</c:v>
+                  <c:v>99080.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>103494.3</c:v>
+                  <c:v>103508.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>107971.5</c:v>
+                  <c:v>107978.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>112400.7</c:v>
+                  <c:v>112608</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>117040.9</c:v>
+                  <c:v>117045.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>121529.60000000001</c:v>
+                  <c:v>121507.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>125997.7</c:v>
+                  <c:v>125850.2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>130535.3</c:v>
+                  <c:v>130564.7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>134937.29999999999</c:v>
+                  <c:v>134968.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>139663.1</c:v>
+                  <c:v>139504.6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>143769</c:v>
+                  <c:v>143909.9</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>147235.5</c:v>
+                  <c:v>147424.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>150721.29999999999</c:v>
+                  <c:v>150912.79999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>154227.70000000001</c:v>
+                  <c:v>154328.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>157745.79999999999</c:v>
+                  <c:v>157885.70000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>161562</c:v>
+                  <c:v>161556.1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>165250</c:v>
+                  <c:v>165427.70000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>169411.3</c:v>
+                  <c:v>169100.3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>173168.6</c:v>
+                  <c:v>173135.2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>177531.8</c:v>
+                  <c:v>177289</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>181320.5</c:v>
+                  <c:v>181413.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>185705.4</c:v>
+                  <c:v>185601</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>189829.7</c:v>
+                  <c:v>189906.3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>194137.60000000001</c:v>
+                  <c:v>194164.6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>198347.7</c:v>
+                  <c:v>198341.9</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>202757.4</c:v>
+                  <c:v>202847.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>207076</c:v>
+                  <c:v>206894.2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>211512.2</c:v>
+                  <c:v>210935.8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>215676.79999999999</c:v>
+                  <c:v>215549.2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>219853.8</c:v>
+                  <c:v>219919.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>224228.1</c:v>
+                  <c:v>224385</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>228544.9</c:v>
+                  <c:v>228427.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>232906.6</c:v>
+                  <c:v>232879.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>237060.7</c:v>
+                  <c:v>237338.8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>241519.6</c:v>
+                  <c:v>241296.8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>245477.2</c:v>
+                  <c:v>245667.8</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>250173.9</c:v>
+                  <c:v>250207.4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>254421.6</c:v>
+                  <c:v>254280.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>258795.4</c:v>
+                  <c:v>259027.6</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>263050.8</c:v>
+                  <c:v>263176.59999999998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>267385.09999999998</c:v>
+                  <c:v>267557.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>271755.8</c:v>
+                  <c:v>271642.90000000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>275839</c:v>
+                  <c:v>276004.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>280202.40000000002</c:v>
+                  <c:v>280225.59999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>284726.7</c:v>
+                  <c:v>284642.7</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>289089.90000000002</c:v>
+                  <c:v>288806.8</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>293348.09999999998</c:v>
+                  <c:v>293245.8</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>297643.8</c:v>
+                  <c:v>297540.59999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>301863.59999999998</c:v>
+                  <c:v>302031.3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>306117.5</c:v>
+                  <c:v>306190.2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>310335</c:v>
+                  <c:v>310502</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>314492.59999999998</c:v>
+                  <c:v>314578.7</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>319142</c:v>
+                  <c:v>319125.3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>323388.3</c:v>
+                  <c:v>323380.59999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>327790.59999999998</c:v>
+                  <c:v>327547.09999999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>332072.90000000002</c:v>
+                  <c:v>332020.90000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>336337.2</c:v>
+                  <c:v>336378.5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>340703</c:v>
+                  <c:v>340686.2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>344980.4</c:v>
+                  <c:v>345027.4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>349209.8</c:v>
+                  <c:v>349243.1</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>353836.2</c:v>
+                  <c:v>353649.9</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>358035.5</c:v>
+                  <c:v>357819.7</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>362339.6</c:v>
+                  <c:v>362102.2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>366495.7</c:v>
+                  <c:v>366664.4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>370717.8</c:v>
+                  <c:v>370963.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>375019.3</c:v>
+                  <c:v>374959.3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>379679.9</c:v>
+                  <c:v>379287.5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>383519.7</c:v>
+                  <c:v>383763.4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>388033.9</c:v>
+                  <c:v>388129.5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>392771.2</c:v>
+                  <c:v>392469.9</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>396574.1</c:v>
+                  <c:v>395223.6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>397273</c:v>
+                  <c:v>400955.7</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>387846</c:v>
+                  <c:v>396926.7</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>403315.4</c:v>
+                  <c:v>403509.6</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>397189.2</c:v>
+                  <c:v>410061.9</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>391931.7</c:v>
+                  <c:v>413324.4</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>396902.1</c:v>
+                  <c:v>403987.8</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>397633.4</c:v>
+                  <c:v>398129.6</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>406775.8</c:v>
+                  <c:v>402738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17422,304 +17404,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>171.9</c:v>
+                  <c:v>177.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139.1</c:v>
+                  <c:v>145.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.4</c:v>
+                  <c:v>120.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109.4</c:v>
+                  <c:v>114.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>109.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>112.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>112.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>114.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>115.8</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>116.5</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>117.3</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>119</c:v>
+                  <c:v>117.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>121.2</c:v>
+                  <c:v>119.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>122.3</c:v>
+                  <c:v>119.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>122.9</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>124.8</c:v>
+                  <c:v>123.9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>125.8</c:v>
+                  <c:v>123.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>125.1</c:v>
+                  <c:v>124.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>126.5</c:v>
+                  <c:v>127.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>127.1</c:v>
+                  <c:v>127.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>128.30000000000001</c:v>
+                  <c:v>127.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>129.80000000000001</c:v>
+                  <c:v>126.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>133</c:v>
+                  <c:v>129.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>132.69999999999999</c:v>
+                  <c:v>133.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>136.9</c:v>
+                  <c:v>131.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>136.9</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>138.80000000000001</c:v>
+                  <c:v>138.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>147.30000000000001</c:v>
+                  <c:v>146.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>150.69999999999999</c:v>
+                  <c:v>150.6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>184.1</c:v>
+                  <c:v>171.7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>269</c:v>
+                  <c:v>272.2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>743.3</c:v>
+                  <c:v>492.7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2654.7</c:v>
+                  <c:v>2428.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3489</c:v>
+                  <c:v>4161.8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3676.4</c:v>
+                  <c:v>3515.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3068.8</c:v>
+                  <c:v>4412.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5377.6</c:v>
+                  <c:v>4042.1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5008.3999999999996</c:v>
+                  <c:v>3497.9</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4482.7</c:v>
+                  <c:v>4276.2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4900.3</c:v>
+                  <c:v>5598.1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1022.9</c:v>
+                  <c:v>1043.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4432.1000000000004</c:v>
+                  <c:v>238.2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1425.1</c:v>
+                  <c:v>216.2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>386.1</c:v>
+                  <c:v>373.6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3047</c:v>
+                  <c:v>210.7</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>217.1</c:v>
+                  <c:v>207.2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>357.5</c:v>
+                  <c:v>267.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>231.8</c:v>
+                  <c:v>518.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>582.79999999999995</c:v>
+                  <c:v>236.4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>279.10000000000002</c:v>
+                  <c:v>244.8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>239.3</c:v>
+                  <c:v>240.3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>258.2</c:v>
+                  <c:v>243.3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>257</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>262.60000000000002</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>277.60000000000002</c:v>
+                  <c:v>272.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>287</c:v>
+                  <c:v>286.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>300.7</c:v>
+                  <c:v>291.7</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>304.60000000000002</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>321.3</c:v>
+                  <c:v>322.3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>332.8</c:v>
+                  <c:v>329.8</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>355.8</c:v>
+                  <c:v>341.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>384.5</c:v>
+                  <c:v>369.9</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>376.6</c:v>
+                  <c:v>370.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>396.9</c:v>
+                  <c:v>443.1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>402.7</c:v>
+                  <c:v>394.8</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4475.6000000000004</c:v>
+                  <c:v>425.1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>443.6</c:v>
+                  <c:v>441.6</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>456.6</c:v>
+                  <c:v>776.3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>483.3</c:v>
+                  <c:v>4728.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>487.8</c:v>
+                  <c:v>500.9</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>556.1</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>548.20000000000005</c:v>
+                  <c:v>537.1</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>558.20000000000005</c:v>
+                  <c:v>581.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>585.70000000000005</c:v>
+                  <c:v>611</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>611.79999999999995</c:v>
+                  <c:v>609.1</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>697.7</c:v>
+                  <c:v>656.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>823</c:v>
+                  <c:v>759.9</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>786.5</c:v>
+                  <c:v>762.9</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>809.2</c:v>
+                  <c:v>853.9</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>890.1</c:v>
+                  <c:v>1604</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1331.1</c:v>
+                  <c:v>950.1</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1339.1</c:v>
+                  <c:v>1148.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1557.5</c:v>
+                  <c:v>1656</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1804.2</c:v>
+                  <c:v>2059.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2339.3000000000002</c:v>
+                  <c:v>2002.3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2189.5</c:v>
+                  <c:v>2826.7</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3801.6</c:v>
+                  <c:v>3302.4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3039.1</c:v>
+                  <c:v>4986</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5201.5</c:v>
+                  <c:v>5528.9</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6464.6</c:v>
+                  <c:v>6396.5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7059.8</c:v>
+                  <c:v>6938.5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6186.4</c:v>
+                  <c:v>6298.5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6722.1</c:v>
+                  <c:v>6992.5</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7019.3</c:v>
+                  <c:v>6912.6</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7521.8</c:v>
+                  <c:v>7050.9</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7009.6</c:v>
+                  <c:v>7001.7</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7010.8</c:v>
+                  <c:v>6956.9</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7301.8</c:v>
+                  <c:v>6933.3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7994.3</c:v>
+                  <c:v>6994.8</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7025.6</c:v>
+                  <c:v>7029.4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6992.3</c:v>
+                  <c:v>6975.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20926,11 +20908,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1342085376"/>
-        <c:axId val="1342091360"/>
+        <c:axId val="-151921456"/>
+        <c:axId val="-151924720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1342085376"/>
+        <c:axId val="-151921456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1800000"/>
@@ -21045,12 +21027,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342091360"/>
+        <c:crossAx val="-151924720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1342091360"/>
+        <c:axId val="-151924720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000"/>
@@ -21181,7 +21163,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342085376"/>
+        <c:crossAx val="-151921456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -26888,7 +26870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -30437,7 +30419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -30481,31 +30465,31 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>140.19999999999999</v>
+        <v>139.5</v>
       </c>
       <c r="C2">
-        <v>212.8</v>
+        <v>26.9</v>
       </c>
       <c r="D2">
         <v>45.3</v>
       </c>
       <c r="E2">
-        <v>85.6</v>
+        <v>88.6</v>
       </c>
       <c r="F2">
-        <v>97.4</v>
+        <v>100.6</v>
       </c>
       <c r="G2">
-        <v>163.80000000000001</v>
+        <v>168.6</v>
       </c>
       <c r="H2">
-        <v>171.9</v>
+        <v>177.8</v>
       </c>
       <c r="I2">
-        <v>205.3</v>
+        <v>202.7</v>
       </c>
       <c r="J2">
-        <v>4487.3</v>
+        <v>4357.1000000000004</v>
       </c>
       <c r="K2">
         <v>4500</v>
@@ -30516,31 +30500,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>87.7</v>
+        <v>90.4</v>
       </c>
       <c r="C3">
-        <v>54.7</v>
+        <v>61.1</v>
       </c>
       <c r="D3">
         <v>41.1</v>
       </c>
       <c r="E3">
-        <v>59.4</v>
+        <v>59.6</v>
       </c>
       <c r="F3">
-        <v>65</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="G3">
-        <v>116.4</v>
+        <v>131.4</v>
       </c>
       <c r="H3">
-        <v>139.1</v>
+        <v>145.1</v>
       </c>
       <c r="I3">
-        <v>165.5</v>
+        <v>168.6</v>
       </c>
       <c r="J3">
-        <v>9001.2999999999993</v>
+        <v>9061.7000000000007</v>
       </c>
       <c r="K3">
         <v>9000</v>
@@ -30551,31 +30535,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>84.8</v>
+        <v>88.5</v>
       </c>
       <c r="C4">
-        <v>120.5</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="D4">
         <v>41.1</v>
       </c>
       <c r="E4">
-        <v>57.7</v>
+        <v>59.1</v>
       </c>
       <c r="F4">
-        <v>62.6</v>
+        <v>64.7</v>
       </c>
       <c r="G4">
-        <v>102.1</v>
+        <v>112.4</v>
       </c>
       <c r="H4">
-        <v>108.4</v>
+        <v>120.6</v>
       </c>
       <c r="I4">
-        <v>127.4</v>
+        <v>140.9</v>
       </c>
       <c r="J4">
-        <v>13491</v>
+        <v>13412.5</v>
       </c>
       <c r="K4">
         <v>13500</v>
@@ -30586,31 +30570,31 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>81.5</v>
+        <v>83.9</v>
       </c>
       <c r="C5">
-        <v>89.4</v>
+        <v>83.7</v>
       </c>
       <c r="D5">
         <v>41.1</v>
       </c>
       <c r="E5">
-        <v>56.6</v>
+        <v>57.2</v>
       </c>
       <c r="F5">
-        <v>60.6</v>
+        <v>61.5</v>
       </c>
       <c r="G5">
-        <v>102.2</v>
+        <v>105.5</v>
       </c>
       <c r="H5">
-        <v>109.4</v>
+        <v>114.1</v>
       </c>
       <c r="I5">
-        <v>127.9</v>
+        <v>133</v>
       </c>
       <c r="J5">
-        <v>18047</v>
+        <v>17857.099999999999</v>
       </c>
       <c r="K5">
         <v>18000</v>
@@ -30621,31 +30605,31 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>90.3</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="C6">
-        <v>1.7353567194502801E+124</v>
+        <v>88072422.799999997</v>
       </c>
       <c r="D6">
         <v>41.1</v>
       </c>
       <c r="E6">
-        <v>56.3</v>
+        <v>55.6</v>
       </c>
       <c r="F6">
-        <v>60</v>
+        <v>59.2</v>
       </c>
       <c r="G6">
-        <v>103.8</v>
+        <v>102.2</v>
       </c>
       <c r="H6">
-        <v>112.1</v>
+        <v>109.7</v>
       </c>
       <c r="I6">
-        <v>131.4</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="J6">
-        <v>22535.599999999999</v>
+        <v>22450.7</v>
       </c>
       <c r="K6">
         <v>22500</v>
@@ -30656,31 +30640,31 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>87.4</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="C7">
-        <v>1.743074167742E+124</v>
+        <v>77.2</v>
       </c>
       <c r="D7">
         <v>41.1</v>
       </c>
       <c r="E7">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="F7">
-        <v>58.7</v>
+        <v>58.8</v>
       </c>
       <c r="G7">
-        <v>104.2</v>
+        <v>103.5</v>
       </c>
       <c r="H7">
-        <v>112.9</v>
+        <v>112.1</v>
       </c>
       <c r="I7">
-        <v>135.6</v>
+        <v>132.1</v>
       </c>
       <c r="J7">
-        <v>26947.599999999999</v>
+        <v>27031.8</v>
       </c>
       <c r="K7">
         <v>27000</v>
@@ -30691,31 +30675,31 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>86.6</v>
+        <v>82</v>
       </c>
       <c r="C8">
-        <v>1.7346398520358401E+124</v>
+        <v>82.7</v>
       </c>
       <c r="D8">
         <v>41.1</v>
       </c>
       <c r="E8">
-        <v>55.8</v>
+        <v>55.5</v>
       </c>
       <c r="F8">
-        <v>59</v>
+        <v>58.7</v>
       </c>
       <c r="G8">
-        <v>105.4</v>
+        <v>104.8</v>
       </c>
       <c r="H8">
         <v>114.6</v>
       </c>
       <c r="I8">
-        <v>140.19999999999999</v>
+        <v>137.9</v>
       </c>
       <c r="J8">
-        <v>31465.9</v>
+        <v>31477.3</v>
       </c>
       <c r="K8">
         <v>31500</v>
@@ -30726,31 +30710,31 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>89.3</v>
+        <v>80.2</v>
       </c>
       <c r="C9">
-        <v>314.8</v>
+        <v>91.8</v>
       </c>
       <c r="D9">
         <v>41.1</v>
       </c>
       <c r="E9">
-        <v>55.7</v>
+        <v>53.9</v>
       </c>
       <c r="F9">
-        <v>58.9</v>
+        <v>57</v>
       </c>
       <c r="G9">
-        <v>106</v>
+        <v>103.9</v>
       </c>
       <c r="H9">
-        <v>115.8</v>
+        <v>113.5</v>
       </c>
       <c r="I9">
-        <v>140.69999999999999</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="J9">
-        <v>36055.199999999997</v>
+        <v>35986.699999999997</v>
       </c>
       <c r="K9">
         <v>36000</v>
@@ -30761,31 +30745,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>84.7</v>
+        <v>81.3</v>
       </c>
       <c r="C10">
-        <v>278.10000000000002</v>
+        <v>86.8</v>
       </c>
       <c r="D10">
-        <v>41.1</v>
+        <v>37.4</v>
       </c>
       <c r="E10">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="F10">
-        <v>58.1</v>
+        <v>57.8</v>
       </c>
       <c r="G10">
-        <v>106.4</v>
+        <v>105.5</v>
       </c>
       <c r="H10">
-        <v>116.5</v>
+        <v>115.8</v>
       </c>
       <c r="I10">
-        <v>141.9</v>
+        <v>141</v>
       </c>
       <c r="J10">
-        <v>40465.599999999999</v>
+        <v>40519.800000000003</v>
       </c>
       <c r="K10">
         <v>40500</v>
@@ -30796,31 +30780,31 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>83.8</v>
+        <v>82.5</v>
       </c>
       <c r="C11">
-        <v>191.7</v>
+        <v>85.3</v>
       </c>
       <c r="D11">
-        <v>41.1</v>
+        <v>37.4</v>
       </c>
       <c r="E11">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="F11">
-        <v>58.2</v>
+        <v>58.4</v>
       </c>
       <c r="G11">
-        <v>107.4</v>
+        <v>107.2</v>
       </c>
       <c r="H11">
-        <v>117.3</v>
+        <v>117</v>
       </c>
       <c r="I11">
-        <v>144.1</v>
+        <v>141.9</v>
       </c>
       <c r="J11">
-        <v>45048.2</v>
+        <v>44995.3</v>
       </c>
       <c r="K11">
         <v>45000</v>
@@ -30831,31 +30815,31 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>84.1</v>
+        <v>81.7</v>
       </c>
       <c r="C12">
-        <v>190.8</v>
+        <v>61.5</v>
       </c>
       <c r="D12">
-        <v>41.1</v>
+        <v>37.4</v>
       </c>
       <c r="E12">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="F12">
-        <v>58</v>
+        <v>57.4</v>
       </c>
       <c r="G12">
-        <v>108.6</v>
+        <v>107.5</v>
       </c>
       <c r="H12">
-        <v>119</v>
+        <v>117.8</v>
       </c>
       <c r="I12">
-        <v>150.30000000000001</v>
+        <v>150.1</v>
       </c>
       <c r="J12">
-        <v>49541.1</v>
+        <v>49415.5</v>
       </c>
       <c r="K12">
         <v>49500</v>
@@ -30866,31 +30850,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>86.4</v>
+        <v>82.4</v>
       </c>
       <c r="C13">
-        <v>185.5</v>
+        <v>61.8</v>
       </c>
       <c r="D13">
         <v>37.4</v>
       </c>
       <c r="E13">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="F13">
-        <v>58.2</v>
+        <v>57.9</v>
       </c>
       <c r="G13">
-        <v>109.7</v>
+        <v>108</v>
       </c>
       <c r="H13">
-        <v>121.2</v>
+        <v>119.2</v>
       </c>
       <c r="I13">
-        <v>153.69999999999999</v>
+        <v>149.4</v>
       </c>
       <c r="J13">
-        <v>53973.2</v>
+        <v>54013.8</v>
       </c>
       <c r="K13">
         <v>54000</v>
@@ -30901,31 +30885,31 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>82.1</v>
       </c>
       <c r="C14">
-        <v>455.3</v>
+        <v>52.3</v>
       </c>
       <c r="D14">
-        <v>41.1</v>
+        <v>37.4</v>
       </c>
       <c r="E14">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="F14">
-        <v>57.8</v>
+        <v>57.7</v>
       </c>
       <c r="G14">
-        <v>110.6</v>
+        <v>108.2</v>
       </c>
       <c r="H14">
-        <v>122.3</v>
+        <v>119.3</v>
       </c>
       <c r="I14">
-        <v>161.19999999999999</v>
+        <v>150</v>
       </c>
       <c r="J14">
-        <v>58453.3</v>
+        <v>58463.6</v>
       </c>
       <c r="K14">
         <v>58500</v>
@@ -30936,31 +30920,31 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>82.9</v>
+        <v>81.8</v>
       </c>
       <c r="C15">
-        <v>242.6</v>
+        <v>48.1</v>
       </c>
       <c r="D15">
-        <v>41.1</v>
+        <v>37.4</v>
       </c>
       <c r="E15">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="F15">
-        <v>58</v>
+        <v>57.3</v>
       </c>
       <c r="G15">
-        <v>111.2</v>
+        <v>110</v>
       </c>
       <c r="H15">
-        <v>122.9</v>
+        <v>122</v>
       </c>
       <c r="I15">
-        <v>156</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="J15">
-        <v>63046.8</v>
+        <v>62954.5</v>
       </c>
       <c r="K15">
         <v>63000</v>
@@ -30971,31 +30955,31 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>83.2</v>
+        <v>81.7</v>
       </c>
       <c r="C16">
-        <v>208.7</v>
+        <v>61.9</v>
       </c>
       <c r="D16">
         <v>37.4</v>
       </c>
       <c r="E16">
-        <v>55.5</v>
+        <v>54.9</v>
       </c>
       <c r="F16">
-        <v>58.1</v>
+        <v>57.3</v>
       </c>
       <c r="G16">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H16">
-        <v>124.8</v>
+        <v>123.9</v>
       </c>
       <c r="I16">
-        <v>167</v>
+        <v>166.3</v>
       </c>
       <c r="J16">
-        <v>67616.2</v>
+        <v>67452.899999999994</v>
       </c>
       <c r="K16">
         <v>67500</v>
@@ -31006,31 +30990,31 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>87.2</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="C17">
-        <v>201.1</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="D17">
         <v>37.4</v>
       </c>
       <c r="E17">
-        <v>55.3</v>
+        <v>54.6</v>
       </c>
       <c r="F17">
-        <v>57.9</v>
+        <v>57.1</v>
       </c>
       <c r="G17">
-        <v>112.6</v>
+        <v>110.9</v>
       </c>
       <c r="H17">
-        <v>125.8</v>
+        <v>123.3</v>
       </c>
       <c r="I17">
-        <v>178.5</v>
+        <v>168</v>
       </c>
       <c r="J17">
-        <v>72034.899999999994</v>
+        <v>72059.399999999994</v>
       </c>
       <c r="K17">
         <v>72000</v>
@@ -31041,31 +31025,31 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>85.8</v>
+        <v>82.8</v>
       </c>
       <c r="C18">
-        <v>180.1</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="D18">
-        <v>37.4</v>
+        <v>41.1</v>
       </c>
       <c r="E18">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="F18">
-        <v>58.1</v>
+        <v>57.3</v>
       </c>
       <c r="G18">
-        <v>112.1</v>
+        <v>111.4</v>
       </c>
       <c r="H18">
-        <v>125.1</v>
+        <v>124.5</v>
       </c>
       <c r="I18">
-        <v>185.1</v>
+        <v>177</v>
       </c>
       <c r="J18">
-        <v>76407.100000000006</v>
+        <v>76419.3</v>
       </c>
       <c r="K18">
         <v>76500</v>
@@ -31076,31 +31060,31 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>83.6</v>
+        <v>85.6</v>
       </c>
       <c r="C19">
-        <v>108.3</v>
+        <v>168.7</v>
       </c>
       <c r="D19">
         <v>37.4</v>
       </c>
       <c r="E19">
-        <v>55.4</v>
+        <v>55</v>
       </c>
       <c r="F19">
-        <v>58</v>
+        <v>57.4</v>
       </c>
       <c r="G19">
-        <v>112.3</v>
+        <v>113.2</v>
       </c>
       <c r="H19">
-        <v>126.5</v>
+        <v>127.5</v>
       </c>
       <c r="I19">
-        <v>194.1</v>
+        <v>189.3</v>
       </c>
       <c r="J19">
-        <v>80940.600000000006</v>
+        <v>81057.600000000006</v>
       </c>
       <c r="K19">
         <v>81000</v>
@@ -31111,31 +31095,31 @@
         <v>11</v>
       </c>
       <c r="B20">
-        <v>83.8</v>
+        <v>84.4</v>
       </c>
       <c r="C20">
-        <v>3.7795112591829199E+126</v>
+        <v>100.8</v>
       </c>
       <c r="D20">
         <v>41.1</v>
       </c>
       <c r="E20">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F20">
-        <v>57.7</v>
+        <v>57.6</v>
       </c>
       <c r="G20">
-        <v>113.1</v>
+        <v>113.3</v>
       </c>
       <c r="H20">
-        <v>127.1</v>
+        <v>127.3</v>
       </c>
       <c r="I20">
-        <v>199.4</v>
+        <v>201.5</v>
       </c>
       <c r="J20">
-        <v>85384.6</v>
+        <v>85509.1</v>
       </c>
       <c r="K20">
         <v>85500</v>
@@ -31146,31 +31130,31 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>85.5</v>
+        <v>83.4</v>
       </c>
       <c r="C21">
-        <v>78.7</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="D21">
         <v>37.4</v>
       </c>
       <c r="E21">
-        <v>55.6</v>
+        <v>54.7</v>
       </c>
       <c r="F21">
-        <v>58.3</v>
+        <v>57.1</v>
       </c>
       <c r="G21">
-        <v>113.6</v>
+        <v>113.1</v>
       </c>
       <c r="H21">
-        <v>128.30000000000001</v>
+        <v>127.5</v>
       </c>
       <c r="I21">
-        <v>218.5</v>
+        <v>216</v>
       </c>
       <c r="J21">
-        <v>90037.8</v>
+        <v>89924.1</v>
       </c>
       <c r="K21">
         <v>90000</v>
@@ -31181,31 +31165,31 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>88.8</v>
+        <v>84.5</v>
       </c>
       <c r="C22">
-        <v>151.1</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="D22">
-        <v>41.1</v>
+        <v>37.4</v>
       </c>
       <c r="E22">
-        <v>55.4</v>
+        <v>54.9</v>
       </c>
       <c r="F22">
-        <v>58.1</v>
+        <v>57.5</v>
       </c>
       <c r="G22">
-        <v>114.3</v>
+        <v>112.2</v>
       </c>
       <c r="H22">
-        <v>129.80000000000001</v>
+        <v>126.7</v>
       </c>
       <c r="I22">
-        <v>253.5</v>
+        <v>218</v>
       </c>
       <c r="J22">
-        <v>94469.6</v>
+        <v>94458.5</v>
       </c>
       <c r="K22">
         <v>94500</v>
@@ -31216,31 +31200,31 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>87.1</v>
+        <v>89.6</v>
       </c>
       <c r="C23">
-        <v>115.9</v>
+        <v>252.3</v>
       </c>
       <c r="D23">
-        <v>41.1</v>
+        <v>37.4</v>
       </c>
       <c r="E23">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="F23">
-        <v>58</v>
+        <v>57.4</v>
       </c>
       <c r="G23">
-        <v>114.7</v>
+        <v>113.1</v>
       </c>
       <c r="H23">
-        <v>133</v>
+        <v>129.5</v>
       </c>
       <c r="I23">
-        <v>266.60000000000002</v>
+        <v>284.10000000000002</v>
       </c>
       <c r="J23">
-        <v>99024.6</v>
+        <v>99080.6</v>
       </c>
       <c r="K23">
         <v>99000</v>
@@ -31251,31 +31235,31 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>87.3</v>
+        <v>90.5</v>
       </c>
       <c r="C24">
-        <v>132.19999999999999</v>
+        <v>255.4</v>
       </c>
       <c r="D24">
-        <v>37.4</v>
+        <v>41.1</v>
       </c>
       <c r="E24">
-        <v>55.3</v>
+        <v>55.1</v>
       </c>
       <c r="F24">
-        <v>57.9</v>
+        <v>57.5</v>
       </c>
       <c r="G24">
-        <v>114.7</v>
+        <v>114.8</v>
       </c>
       <c r="H24">
-        <v>132.69999999999999</v>
+        <v>133.9</v>
       </c>
       <c r="I24">
-        <v>282.10000000000002</v>
+        <v>291.10000000000002</v>
       </c>
       <c r="J24">
-        <v>103494.3</v>
+        <v>103508.4</v>
       </c>
       <c r="K24">
         <v>103500</v>
@@ -31286,31 +31270,31 @@
         <v>11</v>
       </c>
       <c r="B25">
-        <v>94</v>
+        <v>89.9</v>
       </c>
       <c r="C25">
-        <v>159.69999999999999</v>
+        <v>238.5</v>
       </c>
       <c r="D25">
         <v>41.1</v>
       </c>
       <c r="E25">
-        <v>55.9</v>
+        <v>55.3</v>
       </c>
       <c r="F25">
-        <v>58.9</v>
+        <v>58</v>
       </c>
       <c r="G25">
-        <v>116</v>
+        <v>114.2</v>
       </c>
       <c r="H25">
-        <v>136.9</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="I25">
-        <v>361.1</v>
+        <v>324.10000000000002</v>
       </c>
       <c r="J25">
-        <v>107971.5</v>
+        <v>107978.5</v>
       </c>
       <c r="K25">
         <v>108000</v>
@@ -31321,31 +31305,31 @@
         <v>11</v>
       </c>
       <c r="B26">
-        <v>100.4</v>
+        <v>94.3</v>
       </c>
       <c r="C26">
-        <v>261.10000000000002</v>
+        <v>181.2</v>
       </c>
       <c r="D26">
-        <v>41.1</v>
+        <v>37.4</v>
       </c>
       <c r="E26">
-        <v>55.8</v>
+        <v>55.4</v>
       </c>
       <c r="F26">
-        <v>58.7</v>
+        <v>58.3</v>
       </c>
       <c r="G26">
-        <v>115.3</v>
+        <v>115</v>
       </c>
       <c r="H26">
-        <v>136.9</v>
+        <v>137</v>
       </c>
       <c r="I26">
-        <v>443.2</v>
+        <v>371.1</v>
       </c>
       <c r="J26">
-        <v>112400.7</v>
+        <v>112608</v>
       </c>
       <c r="K26">
         <v>112500</v>
@@ -31356,31 +31340,31 @@
         <v>11</v>
       </c>
       <c r="B27">
-        <v>97</v>
+        <v>99.8</v>
       </c>
       <c r="C27">
-        <v>186.3</v>
+        <v>325</v>
       </c>
       <c r="D27">
-        <v>37.4</v>
+        <v>41.1</v>
       </c>
       <c r="E27">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="F27">
-        <v>58.4</v>
+        <v>57.9</v>
       </c>
       <c r="G27">
-        <v>116</v>
+        <v>115.1</v>
       </c>
       <c r="H27">
-        <v>138.80000000000001</v>
+        <v>138.6</v>
       </c>
       <c r="I27">
-        <v>480.6</v>
+        <v>489.6</v>
       </c>
       <c r="J27">
-        <v>117040.9</v>
+        <v>117045.3</v>
       </c>
       <c r="K27">
         <v>117000</v>
@@ -31391,31 +31375,31 @@
         <v>11</v>
       </c>
       <c r="B28">
-        <v>107.8</v>
+        <v>117.3</v>
       </c>
       <c r="C28">
-        <v>290.60000000000002</v>
+        <v>499.4</v>
       </c>
       <c r="D28">
         <v>37.4</v>
       </c>
       <c r="E28">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="F28">
-        <v>59</v>
+        <v>58.2</v>
       </c>
       <c r="G28">
-        <v>117.9</v>
+        <v>116.8</v>
       </c>
       <c r="H28">
-        <v>147.30000000000001</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="I28">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="J28">
-        <v>121529.60000000001</v>
+        <v>121507.6</v>
       </c>
       <c r="K28">
         <v>121500</v>
@@ -31426,31 +31410,31 @@
         <v>11</v>
       </c>
       <c r="B29">
-        <v>123.8</v>
+        <v>121.9</v>
       </c>
       <c r="C29">
-        <v>669.9</v>
+        <v>611.29999999999995</v>
       </c>
       <c r="D29">
-        <v>41.1</v>
+        <v>37.4</v>
       </c>
       <c r="E29">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="F29">
-        <v>58.8</v>
+        <v>58.6</v>
       </c>
       <c r="G29">
-        <v>118.1</v>
+        <v>117.1</v>
       </c>
       <c r="H29">
-        <v>150.69999999999999</v>
+        <v>150.6</v>
       </c>
       <c r="I29">
-        <v>922.1</v>
+        <v>848.2</v>
       </c>
       <c r="J29">
-        <v>125997.7</v>
+        <v>125850.2</v>
       </c>
       <c r="K29">
         <v>126000</v>
@@ -31461,10 +31445,10 @@
         <v>11</v>
       </c>
       <c r="B30">
-        <v>147.69999999999999</v>
+        <v>170.2</v>
       </c>
       <c r="C30">
-        <v>659.2</v>
+        <v>1005.8</v>
       </c>
       <c r="D30">
         <v>41.1</v>
@@ -31473,19 +31457,19 @@
         <v>56.1</v>
       </c>
       <c r="F30">
-        <v>59.5</v>
+        <v>59.6</v>
       </c>
       <c r="G30">
-        <v>122.7</v>
+        <v>120.4</v>
       </c>
       <c r="H30">
-        <v>184.1</v>
+        <v>171.7</v>
       </c>
       <c r="I30">
-        <v>1842.5</v>
+        <v>2029.8</v>
       </c>
       <c r="J30">
-        <v>130535.3</v>
+        <v>130564.7</v>
       </c>
       <c r="K30">
         <v>130500</v>
@@ -31496,31 +31480,31 @@
         <v>11</v>
       </c>
       <c r="B31">
-        <v>180.8</v>
+        <v>224.7</v>
       </c>
       <c r="C31">
-        <v>926.4</v>
+        <v>1736.6</v>
       </c>
       <c r="D31">
-        <v>41.1</v>
+        <v>37.4</v>
       </c>
       <c r="E31">
-        <v>56.2</v>
+        <v>55.6</v>
       </c>
       <c r="F31">
-        <v>59.6</v>
+        <v>58.7</v>
       </c>
       <c r="G31">
-        <v>125.7</v>
+        <v>123.6</v>
       </c>
       <c r="H31">
-        <v>269</v>
+        <v>272.2</v>
       </c>
       <c r="I31">
-        <v>2860.7</v>
+        <v>3538.6</v>
       </c>
       <c r="J31">
-        <v>134937.29999999999</v>
+        <v>134968.4</v>
       </c>
       <c r="K31">
         <v>135000</v>
@@ -31531,31 +31515,31 @@
         <v>11</v>
       </c>
       <c r="B32">
-        <v>339.5</v>
+        <v>289.2</v>
       </c>
       <c r="C32">
-        <v>1928.9</v>
+        <v>1907.9</v>
       </c>
       <c r="D32">
-        <v>41.1</v>
+        <v>37.4</v>
       </c>
       <c r="E32">
-        <v>56.2</v>
+        <v>55.8</v>
       </c>
       <c r="F32">
-        <v>59.7</v>
+        <v>59.2</v>
       </c>
       <c r="G32">
-        <v>129.30000000000001</v>
+        <v>127.5</v>
       </c>
       <c r="H32">
-        <v>743.3</v>
+        <v>492.7</v>
       </c>
       <c r="I32">
-        <v>6214.5</v>
+        <v>5266.8</v>
       </c>
       <c r="J32">
-        <v>139663.1</v>
+        <v>139504.6</v>
       </c>
       <c r="K32">
         <v>139500</v>
@@ -31566,31 +31550,31 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>807.2</v>
+        <v>740.7</v>
       </c>
       <c r="C33">
-        <v>3905.7</v>
+        <v>3522.2</v>
       </c>
       <c r="D33">
-        <v>41.1</v>
+        <v>37.4</v>
       </c>
       <c r="E33">
-        <v>56.7</v>
+        <v>56</v>
       </c>
       <c r="F33">
-        <v>60.5</v>
+        <v>59.4</v>
       </c>
       <c r="G33">
-        <v>131.4</v>
+        <v>130.6</v>
       </c>
       <c r="H33">
-        <v>2654.7</v>
+        <v>2428.4</v>
       </c>
       <c r="I33">
-        <v>21150.6</v>
+        <v>19295.5</v>
       </c>
       <c r="J33">
-        <v>143769</v>
+        <v>143909.9</v>
       </c>
       <c r="K33">
         <v>144000</v>
@@ -31601,31 +31585,31 @@
         <v>11</v>
       </c>
       <c r="B34">
-        <v>1173.9000000000001</v>
+        <v>1150.8</v>
       </c>
       <c r="C34">
-        <v>5622</v>
+        <v>5258.2</v>
       </c>
       <c r="D34">
         <v>37.4</v>
       </c>
       <c r="E34">
-        <v>56.7</v>
+        <v>56.4</v>
       </c>
       <c r="F34">
-        <v>60.6</v>
+        <v>60.3</v>
       </c>
       <c r="G34">
-        <v>134.30000000000001</v>
+        <v>137.9</v>
       </c>
       <c r="H34">
-        <v>3489</v>
+        <v>4161.8</v>
       </c>
       <c r="I34">
-        <v>28467</v>
+        <v>27937.5</v>
       </c>
       <c r="J34">
-        <v>147235.5</v>
+        <v>147424.5</v>
       </c>
       <c r="K34">
         <v>148500</v>
@@ -31636,31 +31620,31 @@
         <v>11</v>
       </c>
       <c r="B35">
-        <v>1362</v>
+        <v>1215.9000000000001</v>
       </c>
       <c r="C35">
-        <v>6407.1</v>
+        <v>5.5975046681583599E+85</v>
       </c>
       <c r="D35">
-        <v>37.4</v>
+        <v>41.1</v>
       </c>
       <c r="E35">
-        <v>57</v>
+        <v>56.4</v>
       </c>
       <c r="F35">
-        <v>61</v>
+        <v>60.5</v>
       </c>
       <c r="G35">
-        <v>140.1</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="H35">
-        <v>3676.4</v>
+        <v>3515.5</v>
       </c>
       <c r="I35">
-        <v>34691.4</v>
+        <v>31570.400000000001</v>
       </c>
       <c r="J35">
-        <v>150721.29999999999</v>
+        <v>150912.79999999999</v>
       </c>
       <c r="K35">
         <v>153000</v>
@@ -31671,31 +31655,31 @@
         <v>11</v>
       </c>
       <c r="B36">
-        <v>1496.2</v>
+        <v>1550.2</v>
       </c>
       <c r="C36">
-        <v>9376.7999999999993</v>
+        <v>7523.4</v>
       </c>
       <c r="D36">
-        <v>41.1</v>
+        <v>37.4</v>
       </c>
       <c r="E36">
-        <v>57.6</v>
+        <v>57.2</v>
       </c>
       <c r="F36">
-        <v>61.9</v>
+        <v>61.5</v>
       </c>
       <c r="G36">
-        <v>145.80000000000001</v>
+        <v>149</v>
       </c>
       <c r="H36">
-        <v>3068.8</v>
+        <v>4412.8999999999996</v>
       </c>
       <c r="I36">
-        <v>40197.1</v>
+        <v>38578.199999999997</v>
       </c>
       <c r="J36">
-        <v>154227.70000000001</v>
+        <v>154328.5</v>
       </c>
       <c r="K36">
         <v>157500</v>
@@ -31706,31 +31690,31 @@
         <v>11</v>
       </c>
       <c r="B37">
-        <v>2200.1999999999998</v>
+        <v>1896.2</v>
       </c>
       <c r="C37">
-        <v>11722.5</v>
+        <v>10699.8</v>
       </c>
       <c r="D37">
         <v>41.1</v>
       </c>
       <c r="E37">
-        <v>58</v>
+        <v>57.5</v>
       </c>
       <c r="F37">
-        <v>62.3</v>
+        <v>61.9</v>
       </c>
       <c r="G37">
-        <v>150.9</v>
+        <v>151.5</v>
       </c>
       <c r="H37">
-        <v>5377.6</v>
+        <v>4042.1</v>
       </c>
       <c r="I37">
-        <v>54317.599999999999</v>
+        <v>51547.6</v>
       </c>
       <c r="J37">
-        <v>157745.79999999999</v>
+        <v>157885.70000000001</v>
       </c>
       <c r="K37">
         <v>162000</v>
@@ -31741,31 +31725,31 @@
         <v>11</v>
       </c>
       <c r="B38">
-        <v>2504.1999999999998</v>
+        <v>2254.4</v>
       </c>
       <c r="C38">
-        <v>13828.6</v>
+        <v>11524.4</v>
       </c>
       <c r="D38">
         <v>41.1</v>
       </c>
       <c r="E38">
-        <v>58.3</v>
+        <v>57.9</v>
       </c>
       <c r="F38">
-        <v>63</v>
+        <v>62.8</v>
       </c>
       <c r="G38">
-        <v>156.4</v>
+        <v>154.1</v>
       </c>
       <c r="H38">
-        <v>5008.3999999999996</v>
+        <v>3497.9</v>
       </c>
       <c r="I38">
-        <v>65309.2</v>
+        <v>59408.1</v>
       </c>
       <c r="J38">
-        <v>161562</v>
+        <v>161556.1</v>
       </c>
       <c r="K38">
         <v>166500</v>
@@ -31776,31 +31760,31 @@
         <v>11</v>
       </c>
       <c r="B39">
-        <v>3161.5</v>
+        <v>3065.7</v>
       </c>
       <c r="C39">
-        <v>22291.1</v>
+        <v>15982.5</v>
       </c>
       <c r="D39">
         <v>41.1</v>
       </c>
       <c r="E39">
-        <v>59.1</v>
+        <v>58.5</v>
       </c>
       <c r="F39">
-        <v>64.099999999999994</v>
+        <v>63.5</v>
       </c>
       <c r="G39">
-        <v>162.19999999999999</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="H39">
-        <v>4482.7</v>
+        <v>4276.2</v>
       </c>
       <c r="I39">
-        <v>77525.3</v>
+        <v>79610</v>
       </c>
       <c r="J39">
-        <v>165250</v>
+        <v>165427.70000000001</v>
       </c>
       <c r="K39">
         <v>171000</v>
@@ -31811,31 +31795,31 @@
         <v>11</v>
       </c>
       <c r="B40">
-        <v>4126.5</v>
+        <v>6327.2</v>
       </c>
       <c r="C40">
-        <v>20835.8</v>
+        <v>58359.9</v>
       </c>
       <c r="D40">
-        <v>41.1</v>
+        <v>37.4</v>
       </c>
       <c r="E40">
-        <v>59.8</v>
+        <v>59.6</v>
       </c>
       <c r="F40">
-        <v>65.2</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="G40">
-        <v>173.1</v>
+        <v>1175.2</v>
       </c>
       <c r="H40">
-        <v>4900.3</v>
+        <v>5598.1</v>
       </c>
       <c r="I40">
-        <v>95574</v>
+        <v>101891.6</v>
       </c>
       <c r="J40">
-        <v>169411.3</v>
+        <v>169100.3</v>
       </c>
       <c r="K40">
         <v>175500</v>
@@ -31846,31 +31830,31 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>4170.5</v>
+        <v>4143.8999999999996</v>
       </c>
       <c r="C41">
-        <v>23174.6</v>
+        <v>37035.9</v>
       </c>
       <c r="D41">
         <v>41.1</v>
       </c>
       <c r="E41">
-        <v>60.9</v>
+        <v>59.1</v>
       </c>
       <c r="F41">
-        <v>66.400000000000006</v>
+        <v>64.7</v>
       </c>
       <c r="G41">
-        <v>165.5</v>
+        <v>167.2</v>
       </c>
       <c r="H41">
-        <v>1022.9</v>
+        <v>1043.4000000000001</v>
       </c>
       <c r="I41">
-        <v>115996.9</v>
+        <v>121868.2</v>
       </c>
       <c r="J41">
-        <v>173168.6</v>
+        <v>173135.2</v>
       </c>
       <c r="K41">
         <v>180000</v>
@@ -31881,31 +31865,31 @@
         <v>11</v>
       </c>
       <c r="B42">
-        <v>5268.4</v>
+        <v>4194.3999999999996</v>
       </c>
       <c r="C42">
-        <v>42063.5</v>
+        <v>35967.5</v>
       </c>
       <c r="D42">
-        <v>37.4</v>
+        <v>41.1</v>
       </c>
       <c r="E42">
-        <v>61.6</v>
+        <v>60.5</v>
       </c>
       <c r="F42">
-        <v>68.099999999999994</v>
+        <v>66.3</v>
       </c>
       <c r="G42">
-        <v>537.1</v>
+        <v>167.1</v>
       </c>
       <c r="H42">
-        <v>4432.1000000000004</v>
+        <v>238.2</v>
       </c>
       <c r="I42">
-        <v>168284.9</v>
+        <v>165872.9</v>
       </c>
       <c r="J42">
-        <v>177531.8</v>
+        <v>177289</v>
       </c>
       <c r="K42">
         <v>184500</v>
@@ -31916,31 +31900,31 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <v>5485.8</v>
+        <v>4262.7</v>
       </c>
       <c r="C43">
-        <v>49186.400000000001</v>
+        <v>43725.7</v>
       </c>
       <c r="D43">
         <v>41.1</v>
       </c>
       <c r="E43">
-        <v>62</v>
+        <v>61.1</v>
       </c>
       <c r="F43">
-        <v>69.400000000000006</v>
+        <v>67.5</v>
       </c>
       <c r="G43">
-        <v>222.5</v>
+        <v>170</v>
       </c>
       <c r="H43">
-        <v>1425.1</v>
+        <v>216.2</v>
       </c>
       <c r="I43">
-        <v>239605</v>
+        <v>230920.1</v>
       </c>
       <c r="J43">
-        <v>181320.5</v>
+        <v>181413.6</v>
       </c>
       <c r="K43">
         <v>189000</v>
@@ -31951,31 +31935,31 @@
         <v>11</v>
       </c>
       <c r="B44">
-        <v>4915.5</v>
+        <v>4919.8</v>
       </c>
       <c r="C44">
-        <v>55776.5</v>
+        <v>59299.5</v>
       </c>
       <c r="D44">
         <v>41.1</v>
       </c>
       <c r="E44">
-        <v>62.8</v>
+        <v>62.1</v>
       </c>
       <c r="F44">
-        <v>70.3</v>
+        <v>69.5</v>
       </c>
       <c r="G44">
-        <v>187.7</v>
+        <v>186</v>
       </c>
       <c r="H44">
-        <v>386.1</v>
+        <v>373.6</v>
       </c>
       <c r="I44">
-        <v>279604.5</v>
+        <v>315152.09999999998</v>
       </c>
       <c r="J44">
-        <v>185705.4</v>
+        <v>185601</v>
       </c>
       <c r="K44">
         <v>193500</v>
@@ -31986,31 +31970,31 @@
         <v>11</v>
       </c>
       <c r="B45">
-        <v>6145.6</v>
+        <v>4420.3999999999996</v>
       </c>
       <c r="C45">
-        <v>78015.399999999994</v>
+        <v>65927.199999999997</v>
       </c>
       <c r="D45">
         <v>41.1</v>
       </c>
       <c r="E45">
-        <v>63.7</v>
+        <v>61.9</v>
       </c>
       <c r="F45">
-        <v>72.3</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="G45">
-        <v>607.29999999999995</v>
+        <v>181.5</v>
       </c>
       <c r="H45">
-        <v>3047</v>
+        <v>210.7</v>
       </c>
       <c r="I45">
-        <v>14345.6</v>
+        <v>6743.1</v>
       </c>
       <c r="J45">
-        <v>189829.7</v>
+        <v>189906.3</v>
       </c>
       <c r="K45">
         <v>198000</v>
@@ -32021,31 +32005,31 @@
         <v>11</v>
       </c>
       <c r="B46">
-        <v>4302.2</v>
+        <v>4211.2</v>
       </c>
       <c r="C46">
-        <v>81860.5</v>
+        <v>81108.899999999994</v>
       </c>
       <c r="D46">
-        <v>37.4</v>
+        <v>41.1</v>
       </c>
       <c r="E46">
-        <v>63.6</v>
+        <v>62.6</v>
       </c>
       <c r="F46">
-        <v>71.7</v>
+        <v>71.3</v>
       </c>
       <c r="G46">
-        <v>186.6</v>
+        <v>183.6</v>
       </c>
       <c r="H46">
-        <v>217.1</v>
+        <v>207.2</v>
       </c>
       <c r="I46">
-        <v>5133.8</v>
+        <v>1618.4</v>
       </c>
       <c r="J46">
-        <v>194137.60000000001</v>
+        <v>194164.6</v>
       </c>
       <c r="K46">
         <v>202500</v>
@@ -32056,31 +32040,31 @@
         <v>11</v>
       </c>
       <c r="B47">
-        <v>4827.8999999999996</v>
+        <v>5023.7</v>
       </c>
       <c r="C47">
-        <v>122308.2</v>
+        <v>111202.6</v>
       </c>
       <c r="D47">
         <v>41.1</v>
       </c>
       <c r="E47">
-        <v>64.7</v>
+        <v>63.7</v>
       </c>
       <c r="F47">
-        <v>73.7</v>
+        <v>72.7</v>
       </c>
       <c r="G47">
-        <v>205.9</v>
+        <v>201</v>
       </c>
       <c r="H47">
-        <v>357.5</v>
+        <v>267.10000000000002</v>
       </c>
       <c r="I47">
-        <v>6880.7</v>
+        <v>14679.8</v>
       </c>
       <c r="J47">
-        <v>198347.7</v>
+        <v>198341.9</v>
       </c>
       <c r="K47">
         <v>207000</v>
@@ -32091,31 +32075,31 @@
         <v>11</v>
       </c>
       <c r="B48">
-        <v>4433.8</v>
+        <v>5080.6000000000004</v>
       </c>
       <c r="C48">
-        <v>175940.5</v>
+        <v>198357.1</v>
       </c>
       <c r="D48">
         <v>41.1</v>
       </c>
       <c r="E48">
-        <v>65</v>
+        <v>66.2</v>
       </c>
       <c r="F48">
-        <v>73.900000000000006</v>
+        <v>75.3</v>
       </c>
       <c r="G48">
-        <v>201.5</v>
+        <v>217</v>
       </c>
       <c r="H48">
-        <v>231.8</v>
+        <v>518.6</v>
       </c>
       <c r="I48">
-        <v>2554.4</v>
+        <v>6229.1</v>
       </c>
       <c r="J48">
-        <v>202757.4</v>
+        <v>202847.5</v>
       </c>
       <c r="K48">
         <v>211500</v>
@@ -32126,31 +32110,31 @@
         <v>11</v>
       </c>
       <c r="B49">
-        <v>2391.5</v>
+        <v>2664.8</v>
       </c>
       <c r="C49">
-        <v>169044.8</v>
+        <v>209938.3</v>
       </c>
       <c r="D49">
-        <v>45.3</v>
+        <v>41.1</v>
       </c>
       <c r="E49">
-        <v>67.400000000000006</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="F49">
-        <v>76.900000000000006</v>
+        <v>74.5</v>
       </c>
       <c r="G49">
-        <v>227.1</v>
+        <v>205.9</v>
       </c>
       <c r="H49">
-        <v>582.79999999999995</v>
+        <v>236.4</v>
       </c>
       <c r="I49">
-        <v>5972.7</v>
+        <v>1766.9</v>
       </c>
       <c r="J49">
-        <v>207076</v>
+        <v>206894.2</v>
       </c>
       <c r="K49">
         <v>216000</v>
@@ -32161,31 +32145,31 @@
         <v>11</v>
       </c>
       <c r="B50">
-        <v>5824.7</v>
+        <v>233.6</v>
       </c>
       <c r="C50">
-        <v>308944.59999999998</v>
+        <v>130541.2</v>
       </c>
       <c r="D50">
-        <v>45.3</v>
+        <v>41.1</v>
       </c>
       <c r="E50">
-        <v>68</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="F50">
-        <v>77.5</v>
+        <v>75</v>
       </c>
       <c r="G50">
-        <v>223.7</v>
+        <v>209.6</v>
       </c>
       <c r="H50">
-        <v>279.10000000000002</v>
+        <v>244.8</v>
       </c>
       <c r="I50">
-        <v>5957.4</v>
+        <v>2965.3</v>
       </c>
       <c r="J50">
-        <v>211512.2</v>
+        <v>210935.8</v>
       </c>
       <c r="K50">
         <v>220500</v>
@@ -32196,31 +32180,31 @@
         <v>11</v>
       </c>
       <c r="B51">
-        <v>1276.2</v>
+        <v>152.5</v>
       </c>
       <c r="C51">
-        <v>228184.2</v>
+        <v>40032.1</v>
       </c>
       <c r="D51">
         <v>41.1</v>
       </c>
       <c r="E51">
-        <v>68.7</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="F51">
-        <v>77.8</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="G51">
-        <v>214.7</v>
+        <v>216.1</v>
       </c>
       <c r="H51">
-        <v>239.3</v>
+        <v>240.3</v>
       </c>
       <c r="I51">
-        <v>296.39999999999998</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="J51">
-        <v>215676.79999999999</v>
+        <v>215549.2</v>
       </c>
       <c r="K51">
         <v>225000</v>
@@ -32231,31 +32215,31 @@
         <v>11</v>
       </c>
       <c r="B52">
-        <v>1328.3</v>
+        <v>151</v>
       </c>
       <c r="C52">
-        <v>220174.9</v>
+        <v>40332.6</v>
       </c>
       <c r="D52">
         <v>41.1</v>
       </c>
       <c r="E52">
-        <v>70.099999999999994</v>
+        <v>68.3</v>
       </c>
       <c r="F52">
-        <v>79.8</v>
+        <v>78.7</v>
       </c>
       <c r="G52">
-        <v>225.7</v>
+        <v>219.3</v>
       </c>
       <c r="H52">
-        <v>258.2</v>
+        <v>243.3</v>
       </c>
       <c r="I52">
-        <v>2901</v>
+        <v>293.8</v>
       </c>
       <c r="J52">
-        <v>219853.8</v>
+        <v>219919.5</v>
       </c>
       <c r="K52">
         <v>229500</v>
@@ -32266,31 +32250,31 @@
         <v>11</v>
       </c>
       <c r="B53">
-        <v>161.30000000000001</v>
+        <v>4354.5</v>
       </c>
       <c r="C53">
-        <v>1.6347778575057501E+88</v>
+        <v>291788.90000000002</v>
       </c>
       <c r="D53">
-        <v>41.1</v>
+        <v>37.4</v>
       </c>
       <c r="E53">
-        <v>70.8</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="F53">
-        <v>80.599999999999994</v>
+        <v>77.5</v>
       </c>
       <c r="G53">
-        <v>232.1</v>
+        <v>227.2</v>
       </c>
       <c r="H53">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I53">
-        <v>313.5</v>
+        <v>300.7</v>
       </c>
       <c r="J53">
-        <v>224228.1</v>
+        <v>224385</v>
       </c>
       <c r="K53">
         <v>234000</v>
@@ -32301,31 +32285,31 @@
         <v>11</v>
       </c>
       <c r="B54">
-        <v>161.6</v>
+        <v>186.3</v>
       </c>
       <c r="C54">
-        <v>72746.3</v>
+        <v>39652.400000000001</v>
       </c>
       <c r="D54">
         <v>41.1</v>
       </c>
       <c r="E54">
-        <v>72.900000000000006</v>
+        <v>71.3</v>
       </c>
       <c r="F54">
-        <v>83</v>
+        <v>81.3</v>
       </c>
       <c r="G54">
-        <v>238.2</v>
+        <v>236.3</v>
       </c>
       <c r="H54">
-        <v>262.60000000000002</v>
+        <v>263</v>
       </c>
       <c r="I54">
-        <v>310.7</v>
+        <v>360.7</v>
       </c>
       <c r="J54">
-        <v>228544.9</v>
+        <v>228427.5</v>
       </c>
       <c r="K54">
         <v>238500</v>
@@ -32336,31 +32320,31 @@
         <v>11</v>
       </c>
       <c r="B55">
-        <v>272.89999999999998</v>
+        <v>179.1</v>
       </c>
       <c r="C55">
-        <v>72177.7</v>
+        <v>39750.800000000003</v>
       </c>
       <c r="D55">
         <v>45.3</v>
       </c>
       <c r="E55">
-        <v>74.400000000000006</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="F55">
-        <v>84.5</v>
+        <v>83.3</v>
       </c>
       <c r="G55">
-        <v>249.3</v>
+        <v>247.1</v>
       </c>
       <c r="H55">
-        <v>277.60000000000002</v>
+        <v>272.60000000000002</v>
       </c>
       <c r="I55">
-        <v>374.9</v>
+        <v>333.3</v>
       </c>
       <c r="J55">
-        <v>232906.6</v>
+        <v>232879.2</v>
       </c>
       <c r="K55">
         <v>243000</v>
@@ -32371,31 +32355,31 @@
         <v>11</v>
       </c>
       <c r="B56">
-        <v>195</v>
+        <v>194.9</v>
       </c>
       <c r="C56">
-        <v>72416.399999999994</v>
+        <v>39893.800000000003</v>
       </c>
       <c r="D56">
         <v>45.3</v>
       </c>
       <c r="E56">
-        <v>75.400000000000006</v>
+        <v>74.3</v>
       </c>
       <c r="F56">
-        <v>86.1</v>
+        <v>85.1</v>
       </c>
       <c r="G56">
-        <v>258.8</v>
+        <v>259.10000000000002</v>
       </c>
       <c r="H56">
-        <v>287</v>
+        <v>286.89999999999998</v>
       </c>
       <c r="I56">
-        <v>356.7</v>
+        <v>364.8</v>
       </c>
       <c r="J56">
-        <v>237060.7</v>
+        <v>237338.8</v>
       </c>
       <c r="K56">
         <v>247500</v>
@@ -32406,31 +32390,31 @@
         <v>11</v>
       </c>
       <c r="B57">
-        <v>213.9</v>
+        <v>200.4</v>
       </c>
       <c r="C57">
-        <v>71720.3</v>
+        <v>497</v>
       </c>
       <c r="D57">
-        <v>45.3</v>
+        <v>41.1</v>
       </c>
       <c r="E57">
-        <v>76.5</v>
+        <v>74.3</v>
       </c>
       <c r="F57">
-        <v>87.4</v>
+        <v>85.6</v>
       </c>
       <c r="G57">
-        <v>272.5</v>
+        <v>263.8</v>
       </c>
       <c r="H57">
-        <v>300.7</v>
+        <v>291.7</v>
       </c>
       <c r="I57">
-        <v>490.9</v>
+        <v>359.2</v>
       </c>
       <c r="J57">
-        <v>241519.6</v>
+        <v>241296.8</v>
       </c>
       <c r="K57">
         <v>252000</v>
@@ -32441,31 +32425,31 @@
         <v>11</v>
       </c>
       <c r="B58">
-        <v>194.2</v>
+        <v>217.2</v>
       </c>
       <c r="C58">
-        <v>71877.5</v>
+        <v>525.79999999999995</v>
       </c>
       <c r="D58">
-        <v>41.1</v>
+        <v>45.3</v>
       </c>
       <c r="E58">
-        <v>77</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F58">
-        <v>89</v>
+        <v>88.3</v>
       </c>
       <c r="G58">
-        <v>277</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="H58">
-        <v>304.60000000000002</v>
+        <v>308</v>
       </c>
       <c r="I58">
-        <v>367.2</v>
+        <v>404.2</v>
       </c>
       <c r="J58">
-        <v>245477.2</v>
+        <v>245667.8</v>
       </c>
       <c r="K58">
         <v>256500</v>
@@ -32476,31 +32460,31 @@
         <v>11</v>
       </c>
       <c r="B59">
-        <v>244.5</v>
+        <v>4520.2</v>
       </c>
       <c r="C59">
-        <v>72106.3</v>
+        <v>291755.8</v>
       </c>
       <c r="D59">
         <v>45.3</v>
       </c>
       <c r="E59">
-        <v>78.5</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="F59">
-        <v>90.9</v>
+        <v>89.8</v>
       </c>
       <c r="G59">
-        <v>288.89999999999998</v>
+        <v>290.89999999999998</v>
       </c>
       <c r="H59">
-        <v>321.3</v>
+        <v>322.3</v>
       </c>
       <c r="I59">
-        <v>3520.5</v>
+        <v>2057.1</v>
       </c>
       <c r="J59">
-        <v>250173.9</v>
+        <v>250207.4</v>
       </c>
       <c r="K59">
         <v>261000</v>
@@ -32511,31 +32495,31 @@
         <v>11</v>
       </c>
       <c r="B60">
-        <v>235.1</v>
+        <v>4583.2</v>
       </c>
       <c r="C60">
-        <v>71759.600000000006</v>
+        <v>293600.40000000002</v>
       </c>
       <c r="D60">
-        <v>49.8</v>
+        <v>41.1</v>
       </c>
       <c r="E60">
-        <v>80.7</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="F60">
-        <v>93.3</v>
+        <v>91.6</v>
       </c>
       <c r="G60">
-        <v>300.60000000000002</v>
+        <v>298</v>
       </c>
       <c r="H60">
-        <v>332.8</v>
+        <v>329.8</v>
       </c>
       <c r="I60">
-        <v>1076.4000000000001</v>
+        <v>4010.4</v>
       </c>
       <c r="J60">
-        <v>254421.6</v>
+        <v>254280.2</v>
       </c>
       <c r="K60">
         <v>265500</v>
@@ -32546,31 +32530,31 @@
         <v>11</v>
       </c>
       <c r="B61">
-        <v>279.7</v>
+        <v>229.2</v>
       </c>
       <c r="C61">
-        <v>72250.3</v>
+        <v>675.9</v>
       </c>
       <c r="D61">
-        <v>41.1</v>
+        <v>45.3</v>
       </c>
       <c r="E61">
-        <v>82.5</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="F61">
-        <v>97</v>
+        <v>92.9</v>
       </c>
       <c r="G61">
-        <v>319.7</v>
+        <v>308.10000000000002</v>
       </c>
       <c r="H61">
-        <v>355.8</v>
+        <v>341.5</v>
       </c>
       <c r="I61">
-        <v>5047.7</v>
+        <v>423.4</v>
       </c>
       <c r="J61">
-        <v>258795.4</v>
+        <v>259027.6</v>
       </c>
       <c r="K61">
         <v>270000</v>
@@ -32581,31 +32565,31 @@
         <v>11</v>
       </c>
       <c r="B62">
-        <v>3538.5</v>
+        <v>292.3</v>
       </c>
       <c r="C62">
-        <v>261324.7</v>
+        <v>842.9</v>
       </c>
       <c r="D62">
         <v>45.3</v>
       </c>
       <c r="E62">
-        <v>82.3</v>
+        <v>83.2</v>
       </c>
       <c r="F62">
-        <v>98.1</v>
+        <v>99.1</v>
       </c>
       <c r="G62">
-        <v>334.2</v>
+        <v>334.6</v>
       </c>
       <c r="H62">
-        <v>384.5</v>
+        <v>369.9</v>
       </c>
       <c r="I62">
-        <v>5570.9</v>
+        <v>4510.8999999999996</v>
       </c>
       <c r="J62">
-        <v>263050.8</v>
+        <v>263176.59999999998</v>
       </c>
       <c r="K62">
         <v>274500</v>
@@ -32616,31 +32600,31 @@
         <v>11</v>
       </c>
       <c r="B63">
-        <v>295.3</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="C63">
-        <v>3.8270378714038901E+78</v>
+        <v>89913758.5</v>
       </c>
       <c r="D63">
         <v>45.3</v>
       </c>
       <c r="E63">
-        <v>85.1</v>
+        <v>83.6</v>
       </c>
       <c r="F63">
-        <v>99.9</v>
+        <v>98.1</v>
       </c>
       <c r="G63">
-        <v>339</v>
+        <v>336.1</v>
       </c>
       <c r="H63">
-        <v>376.6</v>
+        <v>370.5</v>
       </c>
       <c r="I63">
-        <v>5182.6000000000004</v>
+        <v>3505.9</v>
       </c>
       <c r="J63">
-        <v>267385.09999999998</v>
+        <v>267557.5</v>
       </c>
       <c r="K63">
         <v>279000</v>
@@ -32651,31 +32635,31 @@
         <v>11</v>
       </c>
       <c r="B64">
-        <v>312.39999999999998</v>
+        <v>1622.8</v>
       </c>
       <c r="C64">
-        <v>1.06893891071679E+105</v>
+        <v>145384.1</v>
       </c>
       <c r="D64">
-        <v>45.3</v>
+        <v>41.1</v>
       </c>
       <c r="E64">
-        <v>88.2</v>
+        <v>83.6</v>
       </c>
       <c r="F64">
-        <v>104.3</v>
+        <v>100.4</v>
       </c>
       <c r="G64">
-        <v>357.6</v>
+        <v>365.8</v>
       </c>
       <c r="H64">
-        <v>396.9</v>
+        <v>443.1</v>
       </c>
       <c r="I64">
-        <v>5699.5</v>
+        <v>7140.6</v>
       </c>
       <c r="J64">
-        <v>271755.8</v>
+        <v>271642.90000000002</v>
       </c>
       <c r="K64">
         <v>283500</v>
@@ -32686,31 +32670,31 @@
         <v>11</v>
       </c>
       <c r="B65">
-        <v>1402.8</v>
+        <v>304.3</v>
       </c>
       <c r="C65">
-        <v>1.07259420682806E+105</v>
+        <v>2264.8000000000002</v>
       </c>
       <c r="D65">
         <v>49.8</v>
       </c>
       <c r="E65">
-        <v>88.7</v>
+        <v>85.6</v>
       </c>
       <c r="F65">
-        <v>104.9</v>
+        <v>102.5</v>
       </c>
       <c r="G65">
-        <v>363.3</v>
+        <v>356.3</v>
       </c>
       <c r="H65">
-        <v>402.7</v>
+        <v>394.8</v>
       </c>
       <c r="I65">
-        <v>5435.7</v>
+        <v>3712.3</v>
       </c>
       <c r="J65">
-        <v>275839</v>
+        <v>276004.5</v>
       </c>
       <c r="K65">
         <v>288000</v>
@@ -32721,31 +32705,31 @@
         <v>11</v>
       </c>
       <c r="B66">
-        <v>2417.5</v>
+        <v>353.7</v>
       </c>
       <c r="C66">
-        <v>2.1932670695506901E+124</v>
+        <v>1949.3</v>
       </c>
       <c r="D66">
-        <v>49.8</v>
+        <v>45.3</v>
       </c>
       <c r="E66">
-        <v>91.8</v>
+        <v>89</v>
       </c>
       <c r="F66">
-        <v>109.2</v>
+        <v>107.6</v>
       </c>
       <c r="G66">
-        <v>1284.5999999999999</v>
+        <v>379.5</v>
       </c>
       <c r="H66">
-        <v>4475.6000000000004</v>
+        <v>425.1</v>
       </c>
       <c r="I66">
-        <v>9338.6</v>
+        <v>7262.6</v>
       </c>
       <c r="J66">
-        <v>280202.40000000002</v>
+        <v>280225.59999999998</v>
       </c>
       <c r="K66">
         <v>292500</v>
@@ -32756,31 +32740,31 @@
         <v>11</v>
       </c>
       <c r="B67">
-        <v>352</v>
+        <v>341.6</v>
       </c>
       <c r="C67">
-        <v>73736.899999999994</v>
+        <v>1380.2</v>
       </c>
       <c r="D67">
         <v>45.3</v>
       </c>
       <c r="E67">
-        <v>94</v>
+        <v>91.6</v>
       </c>
       <c r="F67">
-        <v>113.5</v>
+        <v>109.9</v>
       </c>
       <c r="G67">
-        <v>400.1</v>
+        <v>395.9</v>
       </c>
       <c r="H67">
-        <v>443.6</v>
+        <v>441.6</v>
       </c>
       <c r="I67">
-        <v>6148.2</v>
+        <v>5969.1</v>
       </c>
       <c r="J67">
-        <v>284726.7</v>
+        <v>284642.7</v>
       </c>
       <c r="K67">
         <v>297000</v>
@@ -32791,31 +32775,31 @@
         <v>11</v>
       </c>
       <c r="B68">
-        <v>359.9</v>
+        <v>494.8</v>
       </c>
       <c r="C68">
-        <v>11803.1</v>
+        <v>1752.1</v>
       </c>
       <c r="D68">
         <v>45.3</v>
       </c>
       <c r="E68">
-        <v>94</v>
+        <v>91.6</v>
       </c>
       <c r="F68">
-        <v>112.3</v>
+        <v>110.2</v>
       </c>
       <c r="G68">
-        <v>408.3</v>
+        <v>444.8</v>
       </c>
       <c r="H68">
-        <v>456.6</v>
+        <v>776.3</v>
       </c>
       <c r="I68">
-        <v>6446.8</v>
+        <v>8524</v>
       </c>
       <c r="J68">
-        <v>289089.90000000002</v>
+        <v>288806.8</v>
       </c>
       <c r="K68">
         <v>301500</v>
@@ -32826,31 +32810,31 @@
         <v>11</v>
       </c>
       <c r="B69">
-        <v>394.1</v>
+        <v>1188.2</v>
       </c>
       <c r="C69">
-        <v>10509</v>
+        <v>13722</v>
       </c>
       <c r="D69">
-        <v>54.8</v>
+        <v>41.1</v>
       </c>
       <c r="E69">
-        <v>99.9</v>
+        <v>95.3</v>
       </c>
       <c r="F69">
-        <v>118.9</v>
+        <v>114.9</v>
       </c>
       <c r="G69">
-        <v>434.8</v>
+        <v>701.3</v>
       </c>
       <c r="H69">
-        <v>483.3</v>
+        <v>4728.5</v>
       </c>
       <c r="I69">
-        <v>7467.8</v>
+        <v>16111.9</v>
       </c>
       <c r="J69">
-        <v>293348.09999999998</v>
+        <v>293245.8</v>
       </c>
       <c r="K69">
         <v>306000</v>
@@ -32861,31 +32845,31 @@
         <v>11</v>
       </c>
       <c r="B70">
-        <v>1478</v>
+        <v>4696.3</v>
       </c>
       <c r="C70">
-        <v>146613.29999999999</v>
+        <v>292135.09999999998</v>
       </c>
       <c r="D70">
         <v>45.3</v>
       </c>
       <c r="E70">
-        <v>97.3</v>
+        <v>100.4</v>
       </c>
       <c r="F70">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G70">
-        <v>442.4</v>
+        <v>449.5</v>
       </c>
       <c r="H70">
-        <v>487.8</v>
+        <v>500.9</v>
       </c>
       <c r="I70">
-        <v>7739.3</v>
+        <v>7977.4</v>
       </c>
       <c r="J70">
-        <v>297643.8</v>
+        <v>297540.59999999998</v>
       </c>
       <c r="K70">
         <v>310500</v>
@@ -32896,31 +32880,31 @@
         <v>11</v>
       </c>
       <c r="B71">
-        <v>437.7</v>
+        <v>499.9</v>
       </c>
       <c r="C71">
-        <v>6707</v>
+        <v>9.0155039715529094E+121</v>
       </c>
       <c r="D71">
         <v>49.8</v>
       </c>
       <c r="E71">
-        <v>106.9</v>
+        <v>100.3</v>
       </c>
       <c r="F71">
-        <v>130.5</v>
+        <v>122.4</v>
       </c>
       <c r="G71">
-        <v>499.5</v>
+        <v>475.9</v>
       </c>
       <c r="H71">
-        <v>556.1</v>
+        <v>533</v>
       </c>
       <c r="I71">
-        <v>7277.9</v>
+        <v>8392.4</v>
       </c>
       <c r="J71">
-        <v>301863.59999999998</v>
+        <v>302031.3</v>
       </c>
       <c r="K71">
         <v>315000</v>
@@ -32931,31 +32915,31 @@
         <v>11</v>
       </c>
       <c r="B72">
-        <v>455.9</v>
+        <v>432.8</v>
       </c>
       <c r="C72">
-        <v>6665.6</v>
+        <v>9.0074547395039795E+121</v>
       </c>
       <c r="D72">
         <v>49.8</v>
       </c>
       <c r="E72">
-        <v>105.5</v>
+        <v>105.1</v>
       </c>
       <c r="F72">
-        <v>127.5</v>
+        <v>128</v>
       </c>
       <c r="G72">
-        <v>484.8</v>
+        <v>486.2</v>
       </c>
       <c r="H72">
-        <v>548.20000000000005</v>
+        <v>537.1</v>
       </c>
       <c r="I72">
-        <v>8185.8</v>
+        <v>7817.9</v>
       </c>
       <c r="J72">
-        <v>306117.5</v>
+        <v>306190.2</v>
       </c>
       <c r="K72">
         <v>319500</v>
@@ -32966,31 +32950,31 @@
         <v>11</v>
       </c>
       <c r="B73">
-        <v>463.3</v>
+        <v>477.9</v>
       </c>
       <c r="C73">
-        <v>6689</v>
+        <v>1491.1</v>
       </c>
       <c r="D73">
         <v>49.8</v>
       </c>
       <c r="E73">
-        <v>106.1</v>
+        <v>110.8</v>
       </c>
       <c r="F73">
-        <v>129</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="G73">
-        <v>502.4</v>
+        <v>526.70000000000005</v>
       </c>
       <c r="H73">
-        <v>558.20000000000005</v>
+        <v>581.20000000000005</v>
       </c>
       <c r="I73">
-        <v>8344.2999999999993</v>
+        <v>8578.4</v>
       </c>
       <c r="J73">
-        <v>310335</v>
+        <v>310502</v>
       </c>
       <c r="K73">
         <v>324000</v>
@@ -33001,31 +32985,31 @@
         <v>11</v>
       </c>
       <c r="B74">
-        <v>461.9</v>
+        <v>510.1</v>
       </c>
       <c r="C74">
-        <v>1361.4</v>
+        <v>1369.7</v>
       </c>
       <c r="D74">
-        <v>54.8</v>
+        <v>49.8</v>
       </c>
       <c r="E74">
-        <v>113.3</v>
+        <v>109.5</v>
       </c>
       <c r="F74">
-        <v>139.4</v>
+        <v>134.6</v>
       </c>
       <c r="G74">
-        <v>530.79999999999995</v>
+        <v>537.29999999999995</v>
       </c>
       <c r="H74">
-        <v>585.70000000000005</v>
+        <v>611</v>
       </c>
       <c r="I74">
-        <v>6746.1</v>
+        <v>8854.4</v>
       </c>
       <c r="J74">
-        <v>314492.59999999998</v>
+        <v>314578.7</v>
       </c>
       <c r="K74">
         <v>328500</v>
@@ -33036,31 +33020,31 @@
         <v>11</v>
       </c>
       <c r="B75">
-        <v>540.6</v>
+        <v>530.79999999999995</v>
       </c>
       <c r="C75">
-        <v>1633.7</v>
+        <v>1621.7</v>
       </c>
       <c r="D75">
         <v>49.8</v>
       </c>
       <c r="E75">
-        <v>111.9</v>
+        <v>108.4</v>
       </c>
       <c r="F75">
-        <v>136.6</v>
+        <v>131.9</v>
       </c>
       <c r="G75">
-        <v>534.79999999999995</v>
+        <v>530.29999999999995</v>
       </c>
       <c r="H75">
-        <v>611.79999999999995</v>
+        <v>609.1</v>
       </c>
       <c r="I75">
-        <v>9480.2000000000007</v>
+        <v>9579.5</v>
       </c>
       <c r="J75">
-        <v>319142</v>
+        <v>319125.3</v>
       </c>
       <c r="K75">
         <v>333000</v>
@@ -33071,31 +33055,31 @@
         <v>11</v>
       </c>
       <c r="B76">
-        <v>586.6</v>
+        <v>526.6</v>
       </c>
       <c r="C76">
-        <v>1723.1</v>
+        <v>1631.1</v>
       </c>
       <c r="D76">
-        <v>54.8</v>
+        <v>49.8</v>
       </c>
       <c r="E76">
-        <v>121.4</v>
+        <v>115.7</v>
       </c>
       <c r="F76">
-        <v>149.80000000000001</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="G76">
-        <v>618</v>
+        <v>578.20000000000005</v>
       </c>
       <c r="H76">
-        <v>697.7</v>
+        <v>656.5</v>
       </c>
       <c r="I76">
-        <v>10039.5</v>
+        <v>8798</v>
       </c>
       <c r="J76">
-        <v>323388.3</v>
+        <v>323380.59999999998</v>
       </c>
       <c r="K76">
         <v>337500</v>
@@ -33106,31 +33090,31 @@
         <v>11</v>
       </c>
       <c r="B77">
-        <v>656.8</v>
+        <v>611</v>
       </c>
       <c r="C77">
-        <v>1875.9</v>
+        <v>4.0781860116702898E+114</v>
       </c>
       <c r="D77">
-        <v>60.2</v>
+        <v>41.1</v>
       </c>
       <c r="E77">
-        <v>134.5</v>
+        <v>124.7</v>
       </c>
       <c r="F77">
-        <v>168.8</v>
+        <v>156.1</v>
       </c>
       <c r="G77">
-        <v>706.8</v>
+        <v>664.6</v>
       </c>
       <c r="H77">
-        <v>823</v>
+        <v>759.9</v>
       </c>
       <c r="I77">
-        <v>10122.799999999999</v>
+        <v>10146.5</v>
       </c>
       <c r="J77">
-        <v>327790.59999999998</v>
+        <v>327547.09999999998</v>
       </c>
       <c r="K77">
         <v>342000</v>
@@ -33141,31 +33125,31 @@
         <v>11</v>
       </c>
       <c r="B78">
-        <v>638.70000000000005</v>
+        <v>636.29999999999995</v>
       </c>
       <c r="C78">
-        <v>1964.6</v>
+        <v>1679.8</v>
       </c>
       <c r="D78">
         <v>49.8</v>
       </c>
       <c r="E78">
-        <v>137.5</v>
+        <v>129.6</v>
       </c>
       <c r="F78">
-        <v>171.2</v>
+        <v>165.5</v>
       </c>
       <c r="G78">
-        <v>710.5</v>
+        <v>666.5</v>
       </c>
       <c r="H78">
-        <v>786.5</v>
+        <v>762.9</v>
       </c>
       <c r="I78">
-        <v>9884.6</v>
+        <v>9725.6</v>
       </c>
       <c r="J78">
-        <v>332072.90000000002</v>
+        <v>332020.90000000002</v>
       </c>
       <c r="K78">
         <v>346500</v>
@@ -33176,31 +33160,31 @@
         <v>11</v>
       </c>
       <c r="B79">
-        <v>662.8</v>
+        <v>687</v>
       </c>
       <c r="C79">
-        <v>1931.2</v>
+        <v>1908.9</v>
       </c>
       <c r="D79">
         <v>49.8</v>
       </c>
       <c r="E79">
-        <v>128.4</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="F79">
-        <v>161.5</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="G79">
-        <v>704.1</v>
+        <v>702.7</v>
       </c>
       <c r="H79">
-        <v>809.2</v>
+        <v>853.9</v>
       </c>
       <c r="I79">
-        <v>10947.2</v>
+        <v>11105.4</v>
       </c>
       <c r="J79">
-        <v>336337.2</v>
+        <v>336378.5</v>
       </c>
       <c r="K79">
         <v>351000</v>
@@ -33211,31 +33195,31 @@
         <v>11</v>
       </c>
       <c r="B80">
-        <v>732.7</v>
+        <v>1381.9</v>
       </c>
       <c r="C80">
-        <v>2087</v>
+        <v>42507.3</v>
       </c>
       <c r="D80">
-        <v>60.2</v>
+        <v>49.8</v>
       </c>
       <c r="E80">
-        <v>142.4</v>
+        <v>136.6</v>
       </c>
       <c r="F80">
-        <v>177.9</v>
+        <v>175.3</v>
       </c>
       <c r="G80">
-        <v>769.3</v>
+        <v>954.4</v>
       </c>
       <c r="H80">
-        <v>890.1</v>
+        <v>1604</v>
       </c>
       <c r="I80">
-        <v>11860.1</v>
+        <v>10427.9</v>
       </c>
       <c r="J80">
-        <v>340703</v>
+        <v>340686.2</v>
       </c>
       <c r="K80">
         <v>355500</v>
@@ -33246,31 +33230,31 @@
         <v>11</v>
       </c>
       <c r="B81">
-        <v>5268.8</v>
+        <v>732.8</v>
       </c>
       <c r="C81">
-        <v>289201.3</v>
+        <v>21185.5</v>
       </c>
       <c r="D81">
         <v>49.8</v>
       </c>
       <c r="E81">
-        <v>150.4</v>
+        <v>154.4</v>
       </c>
       <c r="F81">
-        <v>191.1</v>
+        <v>195.7</v>
       </c>
       <c r="G81">
-        <v>922.9</v>
+        <v>851.5</v>
       </c>
       <c r="H81">
-        <v>1331.1</v>
+        <v>950.1</v>
       </c>
       <c r="I81">
-        <v>11008.8</v>
+        <v>11143.2</v>
       </c>
       <c r="J81">
-        <v>344980.4</v>
+        <v>345027.4</v>
       </c>
       <c r="K81">
         <v>360000</v>
@@ -33281,31 +33265,31 @@
         <v>11</v>
       </c>
       <c r="B82">
-        <v>4080.6</v>
+        <v>858.6</v>
       </c>
       <c r="C82">
-        <v>288464.5</v>
+        <v>2028.8</v>
       </c>
       <c r="D82">
-        <v>49.8</v>
+        <v>41.1</v>
       </c>
       <c r="E82">
-        <v>159.80000000000001</v>
+        <v>165.1</v>
       </c>
       <c r="F82">
-        <v>210.8</v>
+        <v>211.5</v>
       </c>
       <c r="G82">
-        <v>1083.0999999999999</v>
+        <v>944</v>
       </c>
       <c r="H82">
-        <v>1339.1</v>
+        <v>1148.4000000000001</v>
       </c>
       <c r="I82">
-        <v>13206.4</v>
+        <v>11583.4</v>
       </c>
       <c r="J82">
-        <v>349209.8</v>
+        <v>349243.1</v>
       </c>
       <c r="K82">
         <v>364500</v>
@@ -33316,31 +33300,31 @@
         <v>11</v>
       </c>
       <c r="B83">
-        <v>941.6</v>
+        <v>976.7</v>
       </c>
       <c r="C83">
-        <v>143944.6</v>
+        <v>2314.6999999999998</v>
       </c>
       <c r="D83">
         <v>49.8</v>
       </c>
       <c r="E83">
-        <v>181.4</v>
+        <v>181.6</v>
       </c>
       <c r="F83">
-        <v>230.8</v>
+        <v>233.5</v>
       </c>
       <c r="G83">
-        <v>1089.9000000000001</v>
+        <v>1130</v>
       </c>
       <c r="H83">
-        <v>1557.5</v>
+        <v>1656</v>
       </c>
       <c r="I83">
-        <v>11372.2</v>
+        <v>12469.7</v>
       </c>
       <c r="J83">
-        <v>353836.2</v>
+        <v>353649.9</v>
       </c>
       <c r="K83">
         <v>369000</v>
@@ -33351,31 +33335,31 @@
         <v>11</v>
       </c>
       <c r="B84">
-        <v>5352.2</v>
+        <v>941.2</v>
       </c>
       <c r="C84">
-        <v>320137.8</v>
+        <v>2428.6</v>
       </c>
       <c r="D84">
-        <v>45.3</v>
+        <v>54.8</v>
       </c>
       <c r="E84">
-        <v>191.4</v>
+        <v>166.7</v>
       </c>
       <c r="F84">
-        <v>282.2</v>
+        <v>215.7</v>
       </c>
       <c r="G84">
-        <v>1534.9</v>
+        <v>1043.2</v>
       </c>
       <c r="H84">
-        <v>1804.2</v>
+        <v>2059.1999999999998</v>
       </c>
       <c r="I84">
-        <v>13031</v>
+        <v>12330.3</v>
       </c>
       <c r="J84">
-        <v>358035.5</v>
+        <v>357819.7</v>
       </c>
       <c r="K84">
         <v>373500</v>
@@ -33386,31 +33370,31 @@
         <v>11</v>
       </c>
       <c r="B85">
-        <v>1287.4000000000001</v>
+        <v>2301.9</v>
       </c>
       <c r="C85">
-        <v>143655.6</v>
+        <v>147016.5</v>
       </c>
       <c r="D85">
-        <v>60.2</v>
+        <v>54.8</v>
       </c>
       <c r="E85">
-        <v>243.3</v>
+        <v>221</v>
       </c>
       <c r="F85">
-        <v>321.7</v>
+        <v>295.39999999999998</v>
       </c>
       <c r="G85">
-        <v>1527.5</v>
+        <v>1479.4</v>
       </c>
       <c r="H85">
-        <v>2339.3000000000002</v>
+        <v>2002.3</v>
       </c>
       <c r="I85">
-        <v>14181.5</v>
+        <v>14956.9</v>
       </c>
       <c r="J85">
-        <v>362339.6</v>
+        <v>362102.2</v>
       </c>
       <c r="K85">
         <v>378000</v>
@@ -33421,31 +33405,31 @@
         <v>11</v>
       </c>
       <c r="B86">
-        <v>1234.2</v>
+        <v>1487.2</v>
       </c>
       <c r="C86">
-        <v>143755.5</v>
+        <v>2639.9</v>
       </c>
       <c r="D86">
-        <v>49.8</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="E86">
-        <v>228.8</v>
+        <v>286.5</v>
       </c>
       <c r="F86">
-        <v>302.5</v>
+        <v>378.8</v>
       </c>
       <c r="G86">
-        <v>1509.3</v>
+        <v>1905</v>
       </c>
       <c r="H86">
-        <v>2189.5</v>
+        <v>2826.7</v>
       </c>
       <c r="I86">
-        <v>14614.8</v>
+        <v>14455.5</v>
       </c>
       <c r="J86">
-        <v>366495.7</v>
+        <v>366664.4</v>
       </c>
       <c r="K86">
         <v>382500</v>
@@ -33456,31 +33440,31 @@
         <v>11</v>
       </c>
       <c r="B87">
-        <v>1748.8</v>
+        <v>2475.4</v>
       </c>
       <c r="C87">
-        <v>143520.20000000001</v>
+        <v>146751.20000000001</v>
       </c>
       <c r="D87">
         <v>54.8</v>
       </c>
       <c r="E87">
-        <v>315.3</v>
+        <v>257.5</v>
       </c>
       <c r="F87">
-        <v>419</v>
+        <v>339.9</v>
       </c>
       <c r="G87">
-        <v>2241.5</v>
+        <v>1692.1</v>
       </c>
       <c r="H87">
-        <v>3801.6</v>
+        <v>3302.4</v>
       </c>
       <c r="I87">
-        <v>16617.5</v>
+        <v>13864.8</v>
       </c>
       <c r="J87">
-        <v>370717.8</v>
+        <v>370963.20000000001</v>
       </c>
       <c r="K87">
         <v>387000</v>
@@ -33491,31 +33475,31 @@
         <v>11</v>
       </c>
       <c r="B88">
-        <v>1796.3</v>
+        <v>2194.4</v>
       </c>
       <c r="C88">
-        <v>143098.29999999999</v>
+        <v>3007.8</v>
       </c>
       <c r="D88">
         <v>72.900000000000006</v>
       </c>
       <c r="E88">
-        <v>380.4</v>
+        <v>438.7</v>
       </c>
       <c r="F88">
-        <v>499.3</v>
+        <v>590.29999999999995</v>
       </c>
       <c r="G88">
-        <v>2415.8000000000002</v>
+        <v>2949.6</v>
       </c>
       <c r="H88">
-        <v>3039.1</v>
+        <v>4986</v>
       </c>
       <c r="I88">
-        <v>14457.6</v>
+        <v>17044.7</v>
       </c>
       <c r="J88">
-        <v>375019.3</v>
+        <v>374959.3</v>
       </c>
       <c r="K88">
         <v>391500</v>
@@ -33526,31 +33510,31 @@
         <v>11</v>
       </c>
       <c r="B89">
-        <v>2146.1999999999998</v>
+        <v>1997.6</v>
       </c>
       <c r="C89">
-        <v>3258.1</v>
+        <v>3904.3</v>
       </c>
       <c r="D89">
-        <v>66.3</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="E89">
-        <v>427.2</v>
+        <v>352</v>
       </c>
       <c r="F89">
-        <v>580.1</v>
+        <v>470.7</v>
       </c>
       <c r="G89">
-        <v>3144.3</v>
+        <v>3008.3</v>
       </c>
       <c r="H89">
-        <v>5201.5</v>
+        <v>5528.9</v>
       </c>
       <c r="I89">
-        <v>15927.2</v>
+        <v>18174.400000000001</v>
       </c>
       <c r="J89">
-        <v>379679.9</v>
+        <v>379287.5</v>
       </c>
       <c r="K89">
         <v>396000</v>
@@ -33561,31 +33545,31 @@
         <v>11</v>
       </c>
       <c r="B90">
-        <v>2845.7</v>
+        <v>2571.5</v>
       </c>
       <c r="C90">
-        <v>3511.6</v>
+        <v>3652.9</v>
       </c>
       <c r="D90">
-        <v>66.3</v>
+        <v>60.2</v>
       </c>
       <c r="E90">
-        <v>546.6</v>
+        <v>481.8</v>
       </c>
       <c r="F90">
-        <v>758</v>
+        <v>665.7</v>
       </c>
       <c r="G90">
-        <v>4967</v>
+        <v>4561.7</v>
       </c>
       <c r="H90">
-        <v>6464.6</v>
+        <v>6396.5</v>
       </c>
       <c r="I90">
-        <v>16972.900000000001</v>
+        <v>17511.900000000001</v>
       </c>
       <c r="J90">
-        <v>383519.7</v>
+        <v>383763.4</v>
       </c>
       <c r="K90">
         <v>400500</v>
@@ -33596,31 +33580,31 @@
         <v>11</v>
       </c>
       <c r="B91">
-        <v>3146.3</v>
+        <v>3225.1</v>
       </c>
       <c r="C91">
-        <v>4053.5</v>
+        <v>4.9483085180163204E+106</v>
       </c>
       <c r="D91">
-        <v>97</v>
+        <v>60.2</v>
       </c>
       <c r="E91">
-        <v>502.3</v>
+        <v>503</v>
       </c>
       <c r="F91">
-        <v>700.8</v>
+        <v>720</v>
       </c>
       <c r="G91">
-        <v>6078.5</v>
+        <v>6285.3</v>
       </c>
       <c r="H91">
-        <v>7059.8</v>
+        <v>6938.5</v>
       </c>
       <c r="I91">
-        <v>19818</v>
+        <v>17656.599999999999</v>
       </c>
       <c r="J91">
-        <v>388033.9</v>
+        <v>388129.5</v>
       </c>
       <c r="K91">
         <v>405000</v>
@@ -33631,31 +33615,31 @@
         <v>11</v>
       </c>
       <c r="B92">
-        <v>2521</v>
+        <v>2783.2</v>
       </c>
       <c r="C92">
-        <v>4214</v>
+        <v>3794.5</v>
       </c>
       <c r="D92">
-        <v>60.2</v>
+        <v>66.3</v>
       </c>
       <c r="E92">
-        <v>465.9</v>
+        <v>526.29999999999995</v>
       </c>
       <c r="F92">
-        <v>622.1</v>
+        <v>729.3</v>
       </c>
       <c r="G92">
-        <v>4410.6000000000004</v>
+        <v>4571.3</v>
       </c>
       <c r="H92">
-        <v>6186.4</v>
+        <v>6298.5</v>
       </c>
       <c r="I92">
-        <v>17444.3</v>
+        <v>20125.8</v>
       </c>
       <c r="J92">
-        <v>392771.2</v>
+        <v>392469.9</v>
       </c>
       <c r="K92">
         <v>409500</v>
@@ -33666,31 +33650,31 @@
         <v>11</v>
       </c>
       <c r="B93">
-        <v>3631.1</v>
+        <v>7319</v>
       </c>
       <c r="C93">
-        <v>17540.7</v>
+        <v>192409.1</v>
       </c>
       <c r="D93">
         <v>66.3</v>
       </c>
       <c r="E93">
-        <v>681.3</v>
+        <v>2860.2</v>
       </c>
       <c r="F93">
-        <v>1010.7</v>
+        <v>3683</v>
       </c>
       <c r="G93">
-        <v>6046</v>
+        <v>6760</v>
       </c>
       <c r="H93">
-        <v>6722.1</v>
+        <v>6992.5</v>
       </c>
       <c r="I93">
-        <v>17182.7</v>
+        <v>22053.8</v>
       </c>
       <c r="J93">
-        <v>396574.1</v>
+        <v>395223.6</v>
       </c>
       <c r="K93">
         <v>414000</v>
@@ -33701,31 +33685,31 @@
         <v>11</v>
       </c>
       <c r="B94">
-        <v>7453.5</v>
+        <v>4979.2</v>
       </c>
       <c r="C94">
-        <v>204587.2</v>
+        <v>79947</v>
       </c>
       <c r="D94">
-        <v>49.8</v>
+        <v>97</v>
       </c>
       <c r="E94">
-        <v>2753.8</v>
+        <v>1027.2</v>
       </c>
       <c r="F94">
-        <v>3663.3</v>
+        <v>1609</v>
       </c>
       <c r="G94">
-        <v>6781.5</v>
+        <v>6459.3</v>
       </c>
       <c r="H94">
-        <v>7019.3</v>
+        <v>6912.6</v>
       </c>
       <c r="I94">
-        <v>20525.5</v>
+        <v>18735.400000000001</v>
       </c>
       <c r="J94">
-        <v>397273</v>
+        <v>400955.7</v>
       </c>
       <c r="K94">
         <v>418500</v>
@@ -33736,31 +33720,31 @@
         <v>11</v>
       </c>
       <c r="B95">
-        <v>6001.9</v>
+        <v>6545.9</v>
       </c>
       <c r="C95">
-        <v>64980.6</v>
+        <v>146914.1</v>
       </c>
       <c r="D95">
-        <v>88.2</v>
+        <v>66.3</v>
       </c>
       <c r="E95">
-        <v>3234.3</v>
+        <v>3369.6</v>
       </c>
       <c r="F95">
-        <v>3721.5</v>
+        <v>3705.4</v>
       </c>
       <c r="G95">
-        <v>6983.2</v>
+        <v>6826.2</v>
       </c>
       <c r="H95">
-        <v>7521.8</v>
+        <v>7050.9</v>
       </c>
       <c r="I95">
-        <v>21723.4</v>
+        <v>23032.9</v>
       </c>
       <c r="J95">
-        <v>387846</v>
+        <v>396926.7</v>
       </c>
       <c r="K95">
         <v>423000</v>
@@ -33771,31 +33755,31 @@
         <v>11</v>
       </c>
       <c r="B96">
-        <v>5335.9</v>
+        <v>5313.3</v>
       </c>
       <c r="C96">
-        <v>5219.3999999999996</v>
+        <v>4551.6000000000004</v>
       </c>
       <c r="D96">
-        <v>88.2</v>
+        <v>60.2</v>
       </c>
       <c r="E96">
-        <v>3331</v>
+        <v>3306</v>
       </c>
       <c r="F96">
-        <v>3650.4</v>
+        <v>3652.2</v>
       </c>
       <c r="G96">
-        <v>6745.9</v>
+        <v>6749.2</v>
       </c>
       <c r="H96">
-        <v>7009.6</v>
+        <v>7001.7</v>
       </c>
       <c r="I96">
-        <v>22719.200000000001</v>
+        <v>21021.5</v>
       </c>
       <c r="J96">
-        <v>403315.4</v>
+        <v>403509.6</v>
       </c>
       <c r="K96">
         <v>427500</v>
@@ -33806,31 +33790,31 @@
         <v>11</v>
       </c>
       <c r="B97">
-        <v>6407.2</v>
+        <v>6286</v>
       </c>
       <c r="C97">
-        <v>136273.29999999999</v>
+        <v>139406.1</v>
       </c>
       <c r="D97">
         <v>66.3</v>
       </c>
       <c r="E97">
-        <v>3624.5</v>
+        <v>3319.8</v>
       </c>
       <c r="F97">
-        <v>3721.8</v>
+        <v>3475.1</v>
       </c>
       <c r="G97">
-        <v>6791.5</v>
+        <v>6633.5</v>
       </c>
       <c r="H97">
-        <v>7010.8</v>
+        <v>6956.9</v>
       </c>
       <c r="I97">
-        <v>22618.1</v>
+        <v>21492.2</v>
       </c>
       <c r="J97">
-        <v>397189.2</v>
+        <v>410061.9</v>
       </c>
       <c r="K97">
         <v>432000</v>
@@ -33841,31 +33825,31 @@
         <v>11</v>
       </c>
       <c r="B98">
-        <v>5539.7</v>
+        <v>5136.6000000000004</v>
       </c>
       <c r="C98">
-        <v>5052.2</v>
+        <v>4831.8999999999996</v>
       </c>
       <c r="D98">
-        <v>72.900000000000006</v>
+        <v>66.3</v>
       </c>
       <c r="E98">
-        <v>3093.3</v>
+        <v>2941.4</v>
       </c>
       <c r="F98">
-        <v>3710.5</v>
+        <v>3405.3</v>
       </c>
       <c r="G98">
-        <v>6898.2</v>
+        <v>6532.4</v>
       </c>
       <c r="H98">
-        <v>7301.8</v>
+        <v>6933.3</v>
       </c>
       <c r="I98">
-        <v>23205.4</v>
+        <v>21150.400000000001</v>
       </c>
       <c r="J98">
-        <v>391931.7</v>
+        <v>413324.4</v>
       </c>
       <c r="K98">
         <v>436500</v>
@@ -33876,31 +33860,31 @@
         <v>11</v>
       </c>
       <c r="B99">
-        <v>5498.9</v>
+        <v>6318.4</v>
       </c>
       <c r="C99">
-        <v>5788.9</v>
+        <v>132753.60000000001</v>
       </c>
       <c r="D99">
-        <v>80.2</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="E99">
-        <v>2732</v>
+        <v>3357.2</v>
       </c>
       <c r="F99">
-        <v>3664.1</v>
+        <v>3657.2</v>
       </c>
       <c r="G99">
-        <v>6851.8</v>
+        <v>6758.2</v>
       </c>
       <c r="H99">
-        <v>7994.3</v>
+        <v>6994.8</v>
       </c>
       <c r="I99">
-        <v>23911.3</v>
+        <v>21640.1</v>
       </c>
       <c r="J99">
-        <v>396902.1</v>
+        <v>403987.8</v>
       </c>
       <c r="K99">
         <v>441000</v>
@@ -33911,31 +33895,31 @@
         <v>11</v>
       </c>
       <c r="B100">
-        <v>5533.4</v>
+        <v>5797.3</v>
       </c>
       <c r="C100">
-        <v>18607.099999999999</v>
+        <v>45677.1</v>
       </c>
       <c r="D100">
-        <v>88.2</v>
+        <v>60.2</v>
       </c>
       <c r="E100">
-        <v>3277</v>
+        <v>3447.6</v>
       </c>
       <c r="F100">
-        <v>3697.5</v>
+        <v>3715.2</v>
       </c>
       <c r="G100">
-        <v>6805.5</v>
+        <v>6810.6</v>
       </c>
       <c r="H100">
-        <v>7025.6</v>
+        <v>7029.4</v>
       </c>
       <c r="I100">
-        <v>23380.5</v>
+        <v>23674.799999999999</v>
       </c>
       <c r="J100">
-        <v>397633.4</v>
+        <v>398129.6</v>
       </c>
       <c r="K100">
         <v>445500</v>
@@ -33946,31 +33930,31 @@
         <v>11</v>
       </c>
       <c r="B101">
-        <v>7541.6</v>
+        <v>5392.6</v>
       </c>
       <c r="C101">
-        <v>1.1753434377671801E+88</v>
+        <v>4043.2</v>
       </c>
       <c r="D101">
-        <v>72.900000000000006</v>
+        <v>54.8</v>
       </c>
       <c r="E101">
-        <v>3343.3</v>
+        <v>3438</v>
       </c>
       <c r="F101">
-        <v>3567.1</v>
+        <v>3693.5</v>
       </c>
       <c r="G101">
-        <v>6696.7</v>
+        <v>6730.2</v>
       </c>
       <c r="H101">
-        <v>6992.3</v>
+        <v>6975.6</v>
       </c>
       <c r="I101">
-        <v>23538.6</v>
+        <v>23690.2</v>
       </c>
       <c r="J101">
-        <v>406775.8</v>
+        <v>402738</v>
       </c>
       <c r="K101">
         <v>450000</v>
@@ -51739,7 +51723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
